--- a/002.Artificial_Intelligence/002.machine_learning/汇总.xlsx
+++ b/002.Artificial_Intelligence/002.machine_learning/汇总.xlsx
@@ -4,24 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="14"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="自我介绍" sheetId="14" r:id="rId1"/>
-    <sheet name="0.数学指标" sheetId="9" r:id="rId2"/>
-    <sheet name="0.AI体系" sheetId="10" r:id="rId3"/>
-    <sheet name="0.分类" sheetId="11" r:id="rId4"/>
-    <sheet name="0.预处理" sheetId="2" r:id="rId5"/>
-    <sheet name="基础" sheetId="1" r:id="rId6"/>
-    <sheet name="1.回归" sheetId="4" r:id="rId7"/>
-    <sheet name="2.分类" sheetId="3" r:id="rId8"/>
-    <sheet name="3.聚类" sheetId="7" r:id="rId9"/>
-    <sheet name="评估" sheetId="5" r:id="rId10"/>
-    <sheet name="优化" sheetId="6" r:id="rId11"/>
-    <sheet name="cv2" sheetId="12" r:id="rId12"/>
-    <sheet name="深1" sheetId="13" r:id="rId13"/>
-    <sheet name="推荐算法" sheetId="16" r:id="rId14"/>
-    <sheet name="TF" sheetId="17" r:id="rId15"/>
+    <sheet name="1.回归" sheetId="4" r:id="rId1"/>
+    <sheet name="2.分类" sheetId="3" r:id="rId2"/>
+    <sheet name="3.聚类" sheetId="7" r:id="rId3"/>
+    <sheet name="评估" sheetId="5" r:id="rId4"/>
+    <sheet name="优化" sheetId="6" r:id="rId5"/>
+    <sheet name="cv2" sheetId="12" r:id="rId6"/>
+    <sheet name="深1" sheetId="13" r:id="rId7"/>
+    <sheet name="推荐算法" sheetId="16" r:id="rId8"/>
+    <sheet name="TF" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,922 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="787">
-  <si>
-    <t>首先我学习了机器学习，针对不同问题使用不同的方法解决，回归问题，的掌握了线性模型及其变种、决策树、集成学习、支持向量机，
-分类问题：逻辑回归、决策树回归、支持向量机、朴素贝页斯。
-聚类问题：k-means、噪声密度、凝聚层次。</t>
-  </si>
-  <si>
-    <t>numpy和python中的数学指标</t>
-  </si>
-  <si>
-    <t>算数平均值</t>
-  </si>
-  <si>
-    <t>平均值的作用：算数平均值表示——“对增值进行一个无偏估计”</t>
-  </si>
-  <si>
-    <t>m = np.mean(array)   #np的接口
-m = array.mean()  #pandas中Series的接口
-m = df.mean(axis=0)  #pandas中Dataframe的接口</t>
-  </si>
-  <si>
-    <t>加权平均值</t>
-  </si>
-  <si>
-    <t>求平均值时，考虑 "不同样本" 的重要性，可以为 "不同的样本赋予不同的权重"</t>
-  </si>
-  <si>
-    <t>ap = np.average(array,weights=volumes)</t>
-  </si>
-  <si>
-    <t>最小值、最大值</t>
-  </si>
-  <si>
-    <t>np.max()
-np.min()</t>
-  </si>
-  <si>
-    <t>极差</t>
-  </si>
-  <si>
-    <t>最大值减去最不小值</t>
-  </si>
-  <si>
-    <t>np.ptp()</t>
-  </si>
-  <si>
-    <t>最值索引</t>
-  </si>
-  <si>
-    <t>（1）np用法  //返回 "位置" 索引 ，如果返回值相同，会取前面一个
-print(np.argmax(a),np.argmin(a))
-（2）pandas中 //返回 "标签" 索引
-print(series.idxmax(),series.idxmin())  
-print(dataframe.idxmax(),dataframe.idxmin())</t>
-  </si>
-  <si>
-    <t>中位数</t>
-  </si>
-  <si>
-    <t>和平均值有点像
-当特殊数据比较多的时候，求平均值，特殊数据一定会影响整体数据的分布状态
-所以这时候中位数就派上了用场</t>
-  </si>
-  <si>
-    <t>np.median()</t>
-  </si>
-  <si>
-    <t>标准差</t>
-  </si>
-  <si>
-    <t>"评估一组数据" 震荡的幅度。
- 标准差大好，还是标准差小好?
-   标准差 + 平均值结合起来分析
-   （1）"标准差" 比较小
-   （2）且 "平均值" 比较高
-   说明：又好又稳定</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> （1）求平均值
- （2）求离差(deviation): 表示某组数据距离某个中心点偏离程度
- （3）求离差方 //因为有负数，所以(离差的平方)
- （4）方差：  //对 "离差方"  求均值，
- （5）校准差： //对 "方差"开根号，就是标准差//因为前面平方过
-</t>
-  </si>
-  <si>
-    <t>正太分布</t>
-  </si>
-  <si>
-    <t>越接近  "期望值"  的部分，出现的概率越大。
-越远离  "期望值"  的部分，出现的概率越小。</t>
-  </si>
-  <si>
-    <t>高斯分布</t>
-  </si>
-  <si>
-    <t>artificial    intelligence
-读：阿尔提（费学） 赢特ne（jin ce）</t>
-  </si>
-  <si>
-    <t>人工智能做的主要就是预测
-   预测这张图的内容，
-   预测这张人脸是谁
-   预测它这句话说的是什么
-   预测薪资</t>
-  </si>
-  <si>
-    <t>AI体系</t>
-  </si>
-  <si>
-    <t>两大技术</t>
-  </si>
-  <si>
-    <t>（传统）机器学习</t>
-  </si>
-  <si>
-    <t>"机器学习"代码量不大，因为有对应的框架封装了接口</t>
-  </si>
-  <si>
-    <t>机器学习分类</t>
-  </si>
-  <si>
-    <t>基于 “模型的学习”</t>
-  </si>
-  <si>
-    <t>根据 "数据的分布状态"，找到一个数学公式去表达它。
-如：线性回归、岭回归、Lasso回归、多项式回归。</t>
-  </si>
-  <si>
-    <t>基于 “实例的学习”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "相似的输入" 必定产生 "相似的输出"。如：决策树</t>
-  </si>
-  <si>
-    <t>基本流程</t>
-  </si>
-  <si>
-    <t>（1）加载数据
-（2）整理输入输出
-（3）划分训练集和测试集
-（4）创建模型
-（5）训练
-（6）预测</t>
-  </si>
-  <si>
-    <t>深度学习</t>
-  </si>
-  <si>
-    <t>"深度学习"的代码量动不动就2000行，比较大</t>
-  </si>
-  <si>
-    <t>从学习角度</t>
-  </si>
-  <si>
-    <t>监督学习</t>
-  </si>
-  <si>
-    <t>无监督学习</t>
-  </si>
-  <si>
-    <t>强化学习</t>
-  </si>
-  <si>
-    <t>阿尔法狗就是苦于  "深度学习"  做的 "强化学习"</t>
-  </si>
-  <si>
-    <t>主要方向</t>
-  </si>
-  <si>
-    <t>计算机视觉</t>
-  </si>
-  <si>
-    <t>如何让机器理解图像和视频中的内容</t>
-  </si>
-  <si>
-    <t>最简单的图像分类</t>
-  </si>
-  <si>
-    <t>局部图像，目标检测</t>
-  </si>
-  <si>
-    <t>图像分割</t>
-  </si>
-  <si>
-    <t>拍照识别</t>
-  </si>
-  <si>
-    <t>语音识别</t>
-  </si>
-  <si>
-    <t>文本转语音、语音转文本</t>
-  </si>
-  <si>
-    <t>自然语言处理</t>
-  </si>
-  <si>
-    <t>人工智能皇冠上的明珠</t>
-  </si>
-  <si>
-    <t>专家系统</t>
-  </si>
-  <si>
-    <t>规划与推理</t>
-  </si>
-  <si>
-    <t>机器人</t>
-  </si>
-  <si>
-    <t>数据分两类</t>
-  </si>
-  <si>
-    <t>连续数据</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在某个 "区间范围内 任意的值" 都可能出现的 "情况" 
-就叫 "连续数据"
-典型的代表就是 "钱" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   例如：我们班同学今天吃饭花了多少钱? 0-200
-     19.1 26.6 33.3 18.8 52 66 26 32.1 188.8 ......
-     //这组数据有一个什么样的特点? //不是规律，是特点
-     //特点 ： 0~200以内的任意值都可能出现</t>
-  </si>
-  <si>
-    <t>离散数据</t>
-  </si>
-  <si>
-    <t>只有几个 "可选值" 的这种情况</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   收集一下：我们班同学的性别
-     男 女 男 女 男  女  女 男  女 男 男 男 女  男 女 男 男 ......
-     不是男，就是女，不会出现其它情况
-     男 和 女 就是离散值
-     只有两个值的就叫 "二元离散值"
-     有三个 "离散值" ，就叫三元或多元离散值。</t>
-  </si>
-  <si>
-    <t>问题分类</t>
-  </si>
-  <si>
-    <t>回归问题</t>
-  </si>
-  <si>
-    <t>"有监督学习"，有对错，
-在有监督的基础之上得到 "连续的输出"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   .例如：
-  - 根据房屋面积、地段、修建年代以及其它条件预测房屋价格  //"价格"指钱，所以说是 "连续数据"
-  - 根据各种外部条件预测某支股票的价格  //又是价格，还是"钱"，连续数据
-  - 根据农业、气象等数据预测粮食收成   //收成，以吨为单位，1吨，2吨。。。，所以是连续数据
-  - 计算两个人脸的相似度     //相似度 0 ~ 1 连续数据
-//==============
-   "回归" 这个术语： 使用 "源于统计学"，
-       最初是 "用来描述观测数据" 倾向于 "向平均值回归" 的现象。</t>
-  </si>
-  <si>
-    <t>分类问题</t>
-  </si>
-  <si>
-    <t>"有监督学习"，有对错。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 手写体识别（10个类别分类问题）//0-9 ，10个数字，其实是想得到，写的到底是1，还是2，所以是分类问题
-           //结果，只会在这3个可 选值之一
-  - 水果、鲜花、动物识别  //结果只能是这三个之一。 离散值
-  - 工业产品瑕疵检测（良品、次品二分类问题） //不是好的，就是坏的。 离散值
-  - 识别一个句子表达的情绪（正面、负面、中性）// 离散值
-</t>
-  </si>
-  <si>
-    <t>聚类问题</t>
-  </si>
-  <si>
-    <t>无"监督"，只有好坏，没有对错</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  /**
-   只有输入，没有输出，
-  */
-  - 根据 "一批麦粒" 的数据，判断哪些属于 "同一个品种"     //聚类，分成一类，
-  - 根据客户在电商网站的浏览和购买历史，判断哪些客户对某件商品感兴趣  //聚类，
-  - 判断哪些客户具有更高的相似度  </t>
-  </si>
-  <si>
-    <t>降维问题</t>
-  </si>
-  <si>
-    <t>主要是从数学角度变化数据</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  在 "性能损失尽可能小" 的情况下，降低 "数据的复杂度" ，"数据规模" 缩小都称为 "降维问题".
-  "规划缩小" ，计算简单了，都叫 "降维"
-  数据 "特别大"，数据 "特别多"，这种情况就需要降维。
-  比较数据有5个 特征，我想变成2个特征，
-  通过 "正交变换" 、"斜方差举证"，从数据角度把变换、映射
-  这样就能：通过用 "两个值" 去表达"5个数据"。
-  把更 "高维度的数据" 用更少的特殊去表示。
-</t>
-  </si>
-  <si>
-    <t>数据预处理</t>
-  </si>
-  <si>
-    <t>数字类型</t>
-  </si>
-  <si>
-    <t>特征归一化
-（特征：即列）</t>
-  </si>
-  <si>
-    <t>标准化
-也叫：均值移除
-也叫零均值归一化
-（关注：列）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以 "列" 为单位,让样本矩阵中的  " 每一列的平均值为0" ， "标准差为1" ，
-目的：缩小列与列之间的差异？
-</t>
-  </si>
-  <si>
-    <t>应用场景： 列与列之间差异太大
-如：根据  "身高" 和 "体重"，预测身体健康指数。</t>
-  </si>
-  <si>
-    <t>范围缩放
-线性函数归一化
-（关注：列）</t>
-  </si>
-  <si>
-    <t>将每一列的 "最小值" 和 "最大值" 设定为  "相同的区间"
-最小值一般设置为0，最大值设置为1。</t>
-  </si>
-  <si>
-    <t>范围缩放 也是用来处理  "列与与差距过大" 的情况
-     只不过 "范围缩放" 的处理方式不一样</t>
-  </si>
-  <si>
-    <t>归一化 normalize
-（关注：行）</t>
-  </si>
-  <si>
-    <t>反映"样本中" 的 "各个特征" 所占 "比率"，</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   sklearn接口
-   sp.normalize(原始样本，norm='12')
-   /**
-    norm 指范数
-    # l1:  l1范数，除以向量中 "各元素绝对值之和"
-    # l2:  l2范数，除以向量中 "各元素平方之和"
-    绝对值 和 平方都是为了防止负数
-   */</t>
-  </si>
-  <si>
-    <t>二值化</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">根据一个事先给定的阈值，用0或1 来表示特征值是否超过阈值，
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(不可逆)</t>
-    </r>
-  </si>
-  <si>
-    <t>根据一个事先给定的阈值，用0或1 来表示特征值是否超过阈值，</t>
-  </si>
-  <si>
-    <t xml:space="preserve">独热编码
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>想让数据可逆，不丢失信息细节，这里就可以使用 "独热编码"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（可逆）</t>
-    </r>
-  </si>
-  <si>
-    <t>数据是离散值，才能去做。</t>
-  </si>
-  <si>
-    <t>one_hot_encoder = sp.OneHotEncoder</t>
-  </si>
-  <si>
-    <t>稀疏矩阵</t>
-  </si>
-  <si>
-    <t>标签编码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 将"字符串"转成数值类型
-    "针对离散值去做的"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">标签编码只能转 "一维数据"
-  遇到文件时，一般 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一列一列转</t>
-    </r>
-  </si>
-  <si>
-    <t>lb_encoder = sp.LabelEncoder() #定义标签编码对象
-lb_samples = lb_encoder.fit_transform(raw_samples) #执行标签编码#训练并转换
-print(lb_samples)
-print(lb_encoder.inverse_transform(lb_samples)) #逆向转换</t>
-  </si>
-  <si>
-    <t>图像类型</t>
-  </si>
-  <si>
-    <t>（1）旋转</t>
-  </si>
-  <si>
-    <t>（2）平移</t>
-  </si>
-  <si>
-    <t>（3）放大</t>
-  </si>
-  <si>
-    <t>（4）缩小</t>
-  </si>
-  <si>
-    <t>（5）二值化</t>
-  </si>
-  <si>
-    <t>（6）灰度化</t>
-  </si>
-  <si>
-    <t>文本</t>
-  </si>
-  <si>
-    <t>机器学习</t>
-  </si>
-  <si>
-    <t>（1）词频逆文档频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  如：
-         国王 king    he
-            女王 queen   she</t>
-  </si>
-  <si>
-    <t>（2）词模型</t>
-  </si>
-  <si>
-    <t>（3）共线矩阵</t>
-  </si>
-  <si>
-    <t>（4）等等</t>
-  </si>
-  <si>
-    <t>（5）词嵌入、词向量，把词转成数值类型的表示，</t>
-  </si>
-  <si>
-    <t>在 "人工智能" 里面，
-（1）在机器学习中：用来 “保存数据的东西” 是数组
-（2）在深度学习中：用到的是 “张量”，张量的底层就是数组。</t>
-  </si>
-  <si>
-    <t>numpy</t>
-  </si>
-  <si>
-    <t>数组 与 值 进行计算</t>
-  </si>
-  <si>
-    <t>数据的"广播机制"</t>
-  </si>
-  <si>
-    <t>如：当数组*2的时候，
-   如 [1 2 3 4 5 6 ]
-   它会对2进制一个升维[2 2 2 2 2 2]
-   然后每个元素乘以对应位置的值，
-   这也就减少了循环</t>
-  </si>
-  <si>
-    <t>计算</t>
-  </si>
-  <si>
-    <t>数组 与 数组 进行计算：
-对应位置进行计算</t>
-  </si>
-  <si>
-    <t>np的一些函数</t>
-  </si>
-  <si>
-    <t>np.arange(1, 10)
-np.zeros
-np.ones
-zeros_like 和 ones_like
-线性拆分：ary = np.linspace</t>
-  </si>
-  <si>
-    <t>np数组的属性</t>
-  </si>
-  <si>
-    <t>维度、形状：shape
-数据类型：dtype，布尔、整形、浮点、字符、日期、复数、自定义复合（numpy里面是“同质数组”）
-元素个数 size  ，长度 len
-维度：ndim
-元素字节数：itemsize
-T - 数组对象的转置视图
-flat - 扁平迭代器
-tolist 数组转列表</t>
-  </si>
-  <si>
-    <t>索引：</t>
-  </si>
-  <si>
-    <t>旧写法：ary[0][0][0]
-新写法：ary[0, 0, 0]</t>
-  </si>
-  <si>
-    <t>切片：</t>
-  </si>
-  <si>
-    <t>一次性拿到一部分数据（切片后的类型和原来一致）:
-（1）一维切片
-a[:3]
-a[::-1]
-a[:-4:-1]
-（2）多维切片
-ary[:1, :2]
-//===============拿到所有行，不要最后一列
-ary[:, 0:-1]
-//===============拿到所有行，只要最后一列
-ary[:, -1]</t>
-  </si>
-  <si>
-    <t>掩码</t>
-  </si>
-  <si>
-    <t>用数组索引数组
-# 创建一个列表（或数组）
-mask = [True, False, True, False, True, False, True, False, True]
-# 用数组索引一个 "列表"，正常情况是一个索引值，一个切片
-print[a[mask]]
-//========================
-（1）布尔掩码
-   （1）mask里面是 布尔值
-   （2）掩码里面元素个数和原数组元素个数要相同
-（2）索引掩码
-   mask里面是索引值，
-   //个数可以不一致，且可以重复</t>
-  </si>
-  <si>
-    <t>练习题1：求100以内3的倍数
-练习题2：求100以内能被3 和7同时整除的数</t>
-  </si>
-  <si>
-    <t>维度操作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一类：不修改原始数据维度
-（1）视图变维：数据共享 reshape()、ravel()
-（2）复制变维：数据独立 flatten()
-二类：会修改原始数据的维度
-（3）就地变维：直接改变原数组对象 的维度，不返回新数组
-a.shape = (2, 4)\a.resize(2, 2, 2)
-</t>
-  </si>
-  <si>
-    <t>组合与拆分</t>
-  </si>
-  <si>
-    <t>垂直方向：
-水平方向的：
-深度方向的：</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>一组数组——Series</t>
-  </si>
-  <si>
-    <t>创建</t>
-  </si>
-  <si>
-    <t>s = pd.Series()
-data = np.array(['张三','李四','王五','赵六'])
-s = pd.Series(data)
-s = pd.Series(data,index=['100','101','102','103'])</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> （1）位置 索引
-    0 1 2 3 4 5 6 7 8 
- （2）标签 索引
-    zs ls ww zl
- （3）没有反向索引</t>
-  </si>
-  <si>
-    <t>Series常用属性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1.values  所有值，返回 一个 ndarray  #只要值
-s1.index   所有索引，#只要索引
-s1.dtype # 数据类型
-s1.size  # 元素个数
-s1.ndm  # 固定返回1
-s1.shape # 返回 (n,) ，因为它是1维的
-</t>
-  </si>
-  <si>
-    <t>二维数组——DataFrame</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DataFrame 每一行是一个Series，
- DataFrame 每一列是也是一个Series，</t>
-  </si>
-  <si>
-    <t>pd.DataFrame()</t>
-  </si>
-  <si>
-    <t>DataFrame- 常用属性</t>
-  </si>
-  <si>
-    <t>axes  返回 行/列标签(index)列表 //索引有2个维度
-  //和axis有点像
-columns  //返回列标签
-index  //返回行标签
-dtypes  //返回每列的元素类型， 因为列与列可以不同，返回 Series
-empty  //空判断
-ndim  //查看维度，默认2
-size   //元素个数，如果NaN也算一个元素
-values  //返回ndarray 数据
-head(n)  //返回前n行, n默认是5
-tail(n)  //返回最后n行, n默认是5</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数值型:整数、float
- 类别型：字符串</t>
-  </si>
-  <si>
-    <t>数据访问</t>
-  </si>
-  <si>
-    <t>增、删、改、查</t>
-  </si>
-  <si>
-    <t>数据加载与输出</t>
-  </si>
-  <si>
-    <t>数据加载：从文件中加载数据的方法</t>
-  </si>
-  <si>
-    <t>read_csv
-excel
-html
-json</t>
-  </si>
-  <si>
-    <t>数据输出：能加载，当然也能保存</t>
-  </si>
-  <si>
-    <t>dataFrame.to_csv()</t>
-  </si>
-  <si>
-    <t>matplotlib</t>
-  </si>
-  <si>
-    <t>LaTax 表达式</t>
-  </si>
-  <si>
-    <t>数学书上面的公式 排版语法 就是 LaTax 表达式。
-在  matplotlib 中是支持  LaTax 表达式语法的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  \hat{a}  //预测值
-  \bar{a}  //平均值
-  \vec{a}  //向量
-  //================== 希腊字符
-  \alpha
-  \beta
-  \gamma
-  \delta
-  \epsilon
-  \pi
-  //================== 二元关系符</t>
-  </si>
-  <si>
-    <t>窗口</t>
-  </si>
-  <si>
-    <t>当我们点击 "运行" 的时候，它弹出来一个窗口，名字叫 "Figure1"
-在窗口中绘制图形，所以它是有 "窗口的概念"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plt.figure(
-  'sub-fig',   #窗口标题栏文本
-  figsize=(4, 3),  #窗口大小 &lt;元组&gt; //4指宽、3指度
-  facecolor=''  #图表的背景色 //填充颜色
- )
- plt.show()</t>
-  </si>
-  <si>
-    <t>子图</t>
-  </si>
-  <si>
-    <t>在一个窗口里面画多张图表</t>
-  </si>
-  <si>
-    <t>子图布局
-（1）矩阵式布局
-（2）网格式布局
-（3）自由式布局</t>
-  </si>
-  <si>
-    <t>图形的样式</t>
-  </si>
-  <si>
-    <t>实线、虚线、颜色、图例、显示范围、刻度、平面坐标、特殊点、点的形状、等。</t>
-  </si>
-  <si>
-    <t>基础图</t>
-  </si>
-  <si>
-    <t>直线、线段、正、余弦等等。</t>
-  </si>
-  <si>
-    <t>np.sin(x)
-np.cos(x)</t>
-  </si>
-  <si>
-    <t>成型图-散点图</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  把 “一个样本” 做成点画在 图当中。
-  散点图，可以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查看整体的分布状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>plt.scatter</t>
-  </si>
-  <si>
-    <t>成型图-填充图</t>
-  </si>
-  <si>
-    <t>填充图 （用的少，了解即可）</t>
-  </si>
-  <si>
-    <t>plt.fill_between</t>
-  </si>
-  <si>
-    <t>成型图-柱状图、条形图</t>
-  </si>
-  <si>
-    <t>条形图 （用的比较多）</t>
-  </si>
-  <si>
-    <t>plt.bar</t>
-  </si>
-  <si>
-    <t>成型图-直方图</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 和柱状图很象
- 但直方图x轴是一个区间
- 它可以统计</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当前数据的一个分布状态</t>
-    </r>
-  </si>
-  <si>
-    <t>plt.hist</t>
-  </si>
-  <si>
-    <t>模型加载与保存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模型的 "保存" 和 "加载" 功能非常强大，
-但它用起来是非常简单的。
-</t>
-  </si>
-  <si>
-    <t>pickle 是一个序列化模块，可以将想要保存的数据，
-import pickle 
-pickle.dump(model,f)
-pickle.load(f)</t>
-  </si>
-  <si>
-    <t>训练集和测试集的划分</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-训练集和测试集的划分，有专门的接口。
-sklearn.model_selection
-划分 "训练集"和"测试集"</t>
-  </si>
-  <si>
-    <t>训练数据要随机打乱（要随机，但是每次随机要一样的随机规则（随机种子random_state=7））</t>
-  </si>
-  <si>
-    <t>常用的 "训练集"和 "测试集" 划分比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:1 8:2 7:3
-</t>
-  </si>
-  <si>
-    <t>集成学习</t>
-  </si>
-  <si>
-    <t>单个模型得到的预测结果总是片面的，
-根据 "多个不同模" 型给出的预测结果，利用 "平均(回归)" 或者 "投票(分类)" 的方法，
-得出最终预测结果。</t>
-  </si>
-  <si>
-    <t>它不止针对 “决策树”，其它模型同样适用。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="590">
   <si>
     <t>线性回归</t>
   </si>
@@ -3661,8 +2740,14 @@
 不断的调整 “预测输出” 与 “实际输出” 的差异信息，使“损失函数”的值达到最小。（只有更小，没有最小）</t>
   </si>
   <si>
+    <t>回归问题</t>
+  </si>
+  <si>
     <t>均方误差：(求和(y-y')^2) / n
  (真实值 - 预测值)的平方，求和，再除以n</t>
+  </si>
+  <si>
+    <t>分类问题</t>
   </si>
   <si>
     <t>交叉熵：
@@ -4310,13 +3395,6 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4472,12 +3550,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4559,24 +3644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4767,7 +3834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -4925,17 +3992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5053,137 +4109,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5621,141 +4677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6105,29 +5026,1209 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E12"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="108.530973451327" customWidth="1"/>
+    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
+    <col min="2" max="2" width="31.929203539823" customWidth="1"/>
+    <col min="3" max="3" width="67.9911504424779" customWidth="1"/>
+    <col min="4" max="4" width="64.0088495575221" customWidth="1"/>
+    <col min="5" max="5" width="79.0619469026549" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" ht="136" customHeight="1" spans="5:5">
-      <c r="E12" s="165" t="s">
+    <row r="1" ht="67" customHeight="1" spans="1:5">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="120"/>
+    </row>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="121"/>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:5">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="121"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="117"/>
+      <c r="B4" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="121"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="121"/>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="121"/>
+    </row>
+    <row r="7" ht="54" spans="1:5">
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:5">
+      <c r="A9" s="117"/>
+      <c r="B9" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="119"/>
+    </row>
+    <row r="10" ht="81" spans="1:5">
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="119"/>
+    </row>
+    <row r="11" ht="72" customHeight="1" spans="1:5">
+      <c r="A11" s="117"/>
+      <c r="B11" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="119"/>
+    </row>
+    <row r="12" ht="54" spans="1:5">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="119"/>
+    </row>
+    <row r="13" ht="54" spans="1:5">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="119"/>
+    </row>
+    <row r="14" ht="27" spans="1:5">
+      <c r="A14" s="117"/>
+      <c r="B14" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="119"/>
+    </row>
+    <row r="15" ht="63" customHeight="1" spans="1:5">
+      <c r="A15" s="117"/>
+      <c r="B15" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="81" spans="1:5">
+      <c r="A16" s="117"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
+      <c r="A17" s="117"/>
+      <c r="B17" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="1:5">
+      <c r="A19" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="129"/>
+    </row>
+    <row r="20" ht="109" customHeight="1" spans="1:5">
+      <c r="A20" s="127"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:5">
+      <c r="A21" s="127"/>
+      <c r="B21" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="133"/>
+    </row>
+    <row r="22" ht="121.5" spans="1:5">
+      <c r="A22" s="127"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="126"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="117"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:5">
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="117"/>
+    </row>
+    <row r="25" ht="27" spans="1:5">
+      <c r="A25" s="137"/>
+      <c r="B25" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="117"/>
+    </row>
+    <row r="26" ht="44" customHeight="1" spans="1:5">
+      <c r="A26" s="137"/>
+      <c r="B26" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="137"/>
+      <c r="B27" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="117"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="117"/>
+    </row>
+    <row r="29" ht="51" customHeight="1" spans="1:5">
+      <c r="A29" s="137"/>
+      <c r="B29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="117"/>
+    </row>
+    <row r="30" ht="94.5" spans="1:5">
+      <c r="A30" s="137"/>
+      <c r="B30" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="117"/>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:5">
+      <c r="A31" s="137"/>
+      <c r="B31" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="117"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="137"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="117"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="137"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="117"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="137"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="117"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="137"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="117"/>
+    </row>
+    <row r="36" ht="44" customHeight="1" spans="1:5">
+      <c r="A36" s="137"/>
+      <c r="B36" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="118"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="137"/>
+      <c r="B37" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="117"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="137"/>
+      <c r="B38" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="117"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="137"/>
+      <c r="B39" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="117"/>
+    </row>
+    <row r="40" ht="40.5" spans="1:5">
+      <c r="A40" s="137"/>
+      <c r="B40" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="117"/>
+    </row>
+    <row r="41" ht="46" customHeight="1" spans="1:5">
+      <c r="A41" s="137"/>
+      <c r="B41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="117"/>
+    </row>
+    <row r="42" ht="176" customHeight="1" spans="1:5">
+      <c r="A42" s="137"/>
+      <c r="B42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="117"/>
+    </row>
+    <row r="43" ht="47" customHeight="1" spans="1:5">
+      <c r="A43" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="142" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="143"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="117"/>
+    </row>
+    <row r="44" ht="94" customHeight="1" spans="1:5">
+      <c r="A44" s="137"/>
+      <c r="B44" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="144" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="141" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" ht="98" customHeight="1" spans="1:5">
+      <c r="A45" s="137"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="123" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:5">
+      <c r="A46" s="137"/>
+      <c r="B46" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="141" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" spans="1:5">
+      <c r="A47" s="145"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="141" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E20:E22"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="28.6017699115044" customWidth="1"/>
+    <col min="2" max="2" width="45.3451327433628" customWidth="1"/>
+    <col min="3" max="3" width="36.5044247787611" customWidth="1"/>
+    <col min="4" max="4" width="70.5398230088496" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="49" customHeight="1" spans="1:4">
+      <c r="A1" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="92"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="96"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="96"/>
+    </row>
+    <row r="4" ht="71" customHeight="1" spans="1:4">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="96"/>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:4">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" ht="90" customHeight="1" spans="1:4">
+      <c r="A6" s="98"/>
+      <c r="B6" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="99"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="100"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="100"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:4">
+      <c r="A11" s="100"/>
+      <c r="B11" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="100"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
+      <c r="A13" s="100"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:4">
+      <c r="A14" s="100"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:4">
+      <c r="A15" s="100"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="100"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="100"/>
+      <c r="B17" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="100"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="108"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="100"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="108"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="100"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="109"/>
+    </row>
+    <row r="21" ht="81" spans="1:4">
+      <c r="A21" s="110"/>
+      <c r="B21" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" ht="85" customHeight="1" spans="1:4">
+      <c r="A22" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="92"/>
+    </row>
+    <row r="23" ht="65" customHeight="1" spans="1:4">
+      <c r="A23" s="100"/>
+      <c r="B23" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="93"/>
+    </row>
+    <row r="24" ht="67.5" spans="1:4">
+      <c r="A24" s="100"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="93"/>
+    </row>
+    <row r="25" ht="57" customHeight="1" spans="1:4">
+      <c r="A25" s="100"/>
+      <c r="B25" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="114"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="100"/>
+      <c r="B26" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="100"/>
+      <c r="B27" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:4">
+      <c r="A28" s="100"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" ht="28" customHeight="1" spans="1:4">
+      <c r="A29" s="100"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:4">
+      <c r="A30" s="110"/>
+      <c r="B30" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="93"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="93"/>
+    </row>
+    <row r="32" ht="54" spans="1:4">
+      <c r="A32" s="100"/>
+      <c r="B32" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" ht="108" spans="1:4">
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:4">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:4">
+      <c r="A35" s="100"/>
+      <c r="B35" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" ht="81" spans="1:4">
+      <c r="A36" s="100"/>
+      <c r="B36" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" ht="50" customHeight="1" spans="1:4">
+      <c r="A37" s="100"/>
+      <c r="B37" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="116"/>
+    </row>
+    <row r="38" ht="50" customHeight="1" spans="1:4">
+      <c r="A38" s="100"/>
+      <c r="B38" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" ht="81" spans="1:4">
+      <c r="A39" s="110"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D17:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
+    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
+    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" ht="226" customHeight="1" spans="1:9">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="88"/>
+    </row>
+    <row r="7" ht="128" customHeight="1" spans="1:6">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:6">
+      <c r="A8" s="87"/>
+      <c r="B8" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.25"/>
@@ -6150,62 +6251,62 @@
     <row r="7" ht="40.5" spans="5:8">
       <c r="E7" s="76"/>
       <c r="F7" s="77" t="s">
-        <v>422</v>
+        <v>223</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>423</v>
+        <v>224</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>424</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
       <c r="E8" s="76"/>
       <c r="F8" s="78"/>
       <c r="G8" s="76" t="s">
-        <v>425</v>
+        <v>226</v>
       </c>
       <c r="H8" s="76" t="s">
-        <v>426</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
       <c r="E9" s="72" t="s">
-        <v>427</v>
+        <v>228</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>428</v>
+        <v>229</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>429</v>
+        <v>230</v>
       </c>
       <c r="H9" s="76" t="s">
-        <v>430</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
       <c r="E10" s="72"/>
       <c r="F10" s="78"/>
       <c r="G10" s="79" t="s">
-        <v>431</v>
+        <v>232</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>432</v>
+        <v>233</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>433</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
       <c r="E11" s="81"/>
       <c r="F11" s="82" t="s">
-        <v>434</v>
+        <v>235</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>431</v>
+        <v>232</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>435</v>
+        <v>236</v>
       </c>
       <c r="I11" s="85"/>
     </row>
@@ -6213,10 +6314,10 @@
       <c r="E12" s="81"/>
       <c r="F12" s="83"/>
       <c r="G12" s="77" t="s">
-        <v>436</v>
+        <v>237</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>437</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
@@ -6224,7 +6325,7 @@
       <c r="F13" s="83"/>
       <c r="G13" s="78"/>
       <c r="H13" s="84" t="s">
-        <v>438</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
@@ -6232,7 +6333,7 @@
       <c r="F14" s="83"/>
       <c r="G14" s="78"/>
       <c r="H14" s="76" t="s">
-        <v>439</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
@@ -6240,7 +6341,7 @@
       <c r="F15" s="83"/>
       <c r="G15" s="78"/>
       <c r="H15" s="80" t="s">
-        <v>440</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
@@ -6248,19 +6349,19 @@
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="76" t="s">
-        <v>441</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
       <c r="E17" s="81"/>
       <c r="F17" s="72" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>443</v>
+        <v>244</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>444</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
@@ -6268,7 +6369,7 @@
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
       <c r="H18" s="76" t="s">
-        <v>445</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
@@ -6276,7 +6377,7 @@
       <c r="F19" s="72"/>
       <c r="G19" s="72"/>
       <c r="H19" s="76" t="s">
-        <v>446</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6295,7 +6396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D9:G13"/>
@@ -6313,28 +6414,28 @@
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
       <c r="D9" s="72" t="s">
-        <v>447</v>
+        <v>248</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>448</v>
+        <v>249</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>449</v>
+        <v>250</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>450</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="72"/>
       <c r="E10" s="73" t="s">
-        <v>451</v>
+        <v>252</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>452</v>
+        <v>253</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>453</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
@@ -6342,31 +6443,31 @@
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="75" t="s">
-        <v>454</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>455</v>
+        <v>256</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>456</v>
+        <v>257</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>457</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="72"/>
       <c r="E13" s="73" t="s">
-        <v>458</v>
+        <v>259</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>459</v>
+        <v>260</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>460</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6380,7 +6481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G72"/>
@@ -6403,7 +6504,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="31" t="s">
-        <v>461</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6418,7 +6519,7 @@
     <row r="6" ht="70" customHeight="1" spans="1:6">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>462</v>
+        <v>263</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6427,16 +6528,16 @@
     </row>
     <row r="7" ht="40.5" spans="2:7">
       <c r="B7" s="30" t="s">
-        <v>463</v>
+        <v>264</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>464</v>
+        <v>265</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>464</v>
+        <v>265</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>465</v>
+        <v>266</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6445,10 +6546,10 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="3" t="s">
-        <v>466</v>
+        <v>267</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>467</v>
+        <v>268</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6457,10 +6558,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="4" t="s">
-        <v>468</v>
+        <v>269</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>469</v>
+        <v>270</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -6468,13 +6569,13 @@
     <row r="10" spans="2:7">
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>470</v>
+        <v>271</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>470</v>
+        <v>271</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>471</v>
+        <v>272</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6483,13 +6584,13 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>472</v>
+        <v>273</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>473</v>
+        <v>274</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>474</v>
+        <v>275</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -6499,58 +6600,58 @@
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="4" t="s">
-        <v>475</v>
+        <v>276</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>476</v>
+        <v>277</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>477</v>
+        <v>278</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>478</v>
+        <v>279</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>480</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="3" t="s">
-        <v>481</v>
+        <v>282</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>482</v>
+        <v>283</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>484</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="31" t="s">
-        <v>485</v>
+        <v>286</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>486</v>
+        <v>287</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>487</v>
+        <v>288</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>488</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
@@ -6558,7 +6659,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="4" t="s">
-        <v>489</v>
+        <v>290</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
@@ -6568,7 +6669,7 @@
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
-        <v>490</v>
+        <v>291</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -6578,7 +6679,7 @@
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
-        <v>491</v>
+        <v>292</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
@@ -6588,20 +6689,20 @@
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="4" t="s">
-        <v>492</v>
+        <v>293</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="30" t="s">
-        <v>493</v>
+        <v>294</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>494</v>
+        <v>295</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>495</v>
+        <v>296</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6610,10 +6711,10 @@
     <row r="21" spans="2:7">
       <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
-        <v>496</v>
+        <v>297</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>497</v>
+        <v>298</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6622,10 +6723,10 @@
     <row r="22" spans="2:7">
       <c r="B22" s="30"/>
       <c r="C22" s="31" t="s">
-        <v>498</v>
+        <v>299</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>499</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6635,7 +6736,7 @@
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="3" t="s">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6644,11 +6745,11 @@
     <row r="24" ht="27" spans="2:7">
       <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
-        <v>501</v>
+        <v>302</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>502</v>
+        <v>303</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6656,7 +6757,7 @@
     <row r="25" spans="2:7">
       <c r="B25" s="30"/>
       <c r="C25" s="46" t="s">
-        <v>503</v>
+        <v>304</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
@@ -6666,7 +6767,7 @@
     <row r="26" spans="2:7">
       <c r="B26" s="30"/>
       <c r="C26" s="46" t="s">
-        <v>504</v>
+        <v>305</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
@@ -6675,35 +6776,35 @@
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>505</v>
+        <v>306</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>507</v>
+        <v>308</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>507</v>
+        <v>308</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>508</v>
+        <v>309</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="31"/>
       <c r="C28" s="31" t="s">
-        <v>509</v>
+        <v>310</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>510</v>
+        <v>311</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>510</v>
+        <v>311</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>511</v>
+        <v>312</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -6711,26 +6812,26 @@
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="48" t="s">
-        <v>512</v>
+        <v>313</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>512</v>
+        <v>313</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>513</v>
+        <v>314</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
-        <v>514</v>
+        <v>315</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>515</v>
+        <v>316</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>516</v>
+        <v>317</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6739,10 +6840,10 @@
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="50" t="s">
-        <v>517</v>
+        <v>318</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>518</v>
+        <v>319</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6752,7 +6853,7 @@
       <c r="C32" s="31"/>
       <c r="D32" s="50"/>
       <c r="E32" s="44" t="s">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6760,16 +6861,16 @@
     <row r="33" ht="23" customHeight="1" spans="2:7">
       <c r="B33" s="31"/>
       <c r="C33" s="31" t="s">
-        <v>520</v>
+        <v>321</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>521</v>
+        <v>322</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>522</v>
+        <v>323</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>523</v>
+        <v>324</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -6777,10 +6878,10 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="48" t="s">
-        <v>524</v>
+        <v>325</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>525</v>
+        <v>326</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="3"/>
@@ -6788,16 +6889,16 @@
     <row r="35" spans="2:7">
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
-        <v>526</v>
+        <v>327</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>527</v>
+        <v>328</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>529</v>
+        <v>330</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -6805,10 +6906,10 @@
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="48" t="s">
-        <v>530</v>
+        <v>331</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>531</v>
+        <v>332</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="3"/>
@@ -6817,10 +6918,10 @@
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="48" t="s">
-        <v>532</v>
+        <v>333</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>533</v>
+        <v>334</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="3"/>
@@ -6828,13 +6929,13 @@
     <row r="38" spans="2:7">
       <c r="B38" s="31"/>
       <c r="C38" s="31" t="s">
-        <v>534</v>
+        <v>335</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>535</v>
+        <v>336</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>536</v>
+        <v>337</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="3"/>
@@ -6842,48 +6943,48 @@
     <row r="39" ht="108" spans="2:7">
       <c r="B39" s="31"/>
       <c r="C39" s="31" t="s">
-        <v>537</v>
+        <v>338</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>538</v>
+        <v>339</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>539</v>
+        <v>340</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>540</v>
+        <v>341</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>541</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="53" t="s">
-        <v>542</v>
+        <v>343</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>543</v>
+        <v>344</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4" t="s">
-        <v>544</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
       <c r="B41" s="31"/>
       <c r="C41" s="31" t="s">
-        <v>545</v>
+        <v>346</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>546</v>
+        <v>347</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>547</v>
+        <v>348</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>548</v>
+        <v>349</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -6891,10 +6992,10 @@
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="49" t="s">
-        <v>549</v>
+        <v>350</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>550</v>
+        <v>351</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -6902,34 +7003,34 @@
     <row r="43" ht="33" customHeight="1" spans="2:7">
       <c r="B43" s="31"/>
       <c r="C43" s="4" t="s">
-        <v>551</v>
+        <v>352</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>552</v>
+        <v>353</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>553</v>
+        <v>354</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>554</v>
+        <v>355</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
       <c r="B44" s="56" t="s">
-        <v>555</v>
+        <v>356</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>556</v>
+        <v>357</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>557</v>
+        <v>358</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>558</v>
+        <v>359</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>559</v>
+        <v>360</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -6937,13 +7038,13 @@
       <c r="B45" s="56"/>
       <c r="C45" s="58"/>
       <c r="D45" s="49" t="s">
-        <v>560</v>
+        <v>361</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>561</v>
+        <v>362</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>562</v>
+        <v>363</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -6951,7 +7052,7 @@
       <c r="B46" s="56"/>
       <c r="C46" s="58"/>
       <c r="D46" s="49" t="s">
-        <v>563</v>
+        <v>364</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="49"/>
@@ -6960,7 +7061,7 @@
     <row r="47" ht="54" spans="2:7">
       <c r="B47" s="59"/>
       <c r="C47" s="56" t="s">
-        <v>564</v>
+        <v>365</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="52"/>
@@ -6969,13 +7070,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
       <c r="B48" s="60" t="s">
-        <v>565</v>
+        <v>366</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>565</v>
+        <v>366</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>566</v>
+        <v>367</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="57"/>
@@ -6985,7 +7086,7 @@
       <c r="B49" s="60"/>
       <c r="C49" s="56"/>
       <c r="D49" s="57" t="s">
-        <v>567</v>
+        <v>368</v>
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="57"/>
@@ -6995,10 +7096,10 @@
       <c r="B50" s="60"/>
       <c r="C50" s="56"/>
       <c r="D50" s="57" t="s">
-        <v>568</v>
+        <v>369</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>569</v>
+        <v>370</v>
       </c>
       <c r="F50" s="57"/>
       <c r="G50" s="3"/>
@@ -7013,29 +7114,29 @@
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
       <c r="B52" s="35" t="s">
-        <v>570</v>
+        <v>371</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>571</v>
+        <v>372</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>572</v>
+        <v>373</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>573</v>
+        <v>374</v>
       </c>
       <c r="F52" s="62" t="s">
-        <v>574</v>
+        <v>375</v>
       </c>
       <c r="G52" s="63" t="s">
-        <v>575</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
       <c r="B53" s="36"/>
       <c r="C53" s="64"/>
       <c r="D53" s="3" t="s">
-        <v>576</v>
+        <v>377</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="65"/>
@@ -7045,10 +7146,10 @@
       <c r="B54" s="36"/>
       <c r="C54" s="64"/>
       <c r="D54" s="35" t="s">
-        <v>577</v>
+        <v>378</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>578</v>
+        <v>379</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="68"/>
@@ -7058,7 +7159,7 @@
       <c r="C55" s="64"/>
       <c r="D55" s="36"/>
       <c r="E55" s="3" t="s">
-        <v>579</v>
+        <v>380</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -7068,7 +7169,7 @@
       <c r="C56" s="64"/>
       <c r="D56" s="36"/>
       <c r="E56" s="3" t="s">
-        <v>580</v>
+        <v>381</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -7078,16 +7179,16 @@
       <c r="C57" s="69"/>
       <c r="D57" s="37"/>
       <c r="E57" s="4" t="s">
-        <v>581</v>
+        <v>382</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>582</v>
+        <v>383</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="70" t="s">
-        <v>583</v>
+        <v>384</v>
       </c>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -7183,7 +7284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C18:H95"/>
@@ -7205,16 +7306,16 @@
   <sheetData>
     <row r="18" ht="27" spans="3:8">
       <c r="C18" s="10" t="s">
-        <v>584</v>
+        <v>385</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>585</v>
+        <v>386</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>586</v>
+        <v>387</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>587</v>
+        <v>388</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="3"/>
@@ -7222,10 +7323,10 @@
     <row r="19" ht="54" spans="3:8">
       <c r="C19" s="10"/>
       <c r="D19" s="12" t="s">
-        <v>588</v>
+        <v>389</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>589</v>
+        <v>390</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
@@ -7234,10 +7335,10 @@
     <row r="20" spans="3:8">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>590</v>
+        <v>391</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>591</v>
+        <v>392</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
@@ -7246,7 +7347,7 @@
     <row r="21" ht="72" customHeight="1" spans="3:8">
       <c r="C21" s="10"/>
       <c r="D21" s="12" t="s">
-        <v>592</v>
+        <v>393</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14"/>
@@ -7255,17 +7356,17 @@
     </row>
     <row r="22" ht="32" customHeight="1" spans="3:8">
       <c r="C22" s="14" t="s">
-        <v>593</v>
+        <v>394</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>594</v>
+        <v>395</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>595</v>
+        <v>396</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
-        <v>596</v>
+        <v>397</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -7275,23 +7376,23 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>597</v>
+        <v>398</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" ht="265" customHeight="1" spans="3:8">
       <c r="C24" s="14"/>
       <c r="D24" s="18" t="s">
-        <v>598</v>
+        <v>399</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>599</v>
+        <v>400</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>600</v>
+        <v>401</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>601</v>
+        <v>402</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -7300,20 +7401,20 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>602</v>
+        <v>403</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>603</v>
+        <v>404</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" ht="38" customHeight="1" spans="3:8">
       <c r="C26" s="14"/>
       <c r="D26" s="11" t="s">
-        <v>604</v>
+        <v>405</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>605</v>
+        <v>406</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -7322,42 +7423,42 @@
     <row r="27" ht="409" customHeight="1" spans="3:8">
       <c r="C27" s="14"/>
       <c r="D27" s="12" t="s">
-        <v>606</v>
+        <v>407</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>607</v>
+        <v>408</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>608</v>
+        <v>409</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>609</v>
+        <v>410</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" ht="58" customHeight="1" spans="3:8">
       <c r="C28" s="14"/>
       <c r="D28" s="11" t="s">
-        <v>610</v>
+        <v>411</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>611</v>
+        <v>412</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>612</v>
+        <v>413</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="21" t="s">
-        <v>613</v>
+        <v>414</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>614</v>
+        <v>415</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>615</v>
+        <v>416</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -7366,13 +7467,13 @@
     <row r="30" spans="3:8">
       <c r="C30" s="21"/>
       <c r="D30" s="22" t="s">
-        <v>616</v>
+        <v>417</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>617</v>
+        <v>418</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>618</v>
+        <v>419</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="3"/>
@@ -7380,26 +7481,26 @@
     <row r="31" ht="85" customHeight="1" spans="3:8">
       <c r="C31" s="21"/>
       <c r="D31" s="22" t="s">
-        <v>613</v>
+        <v>414</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>619</v>
+        <v>420</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>620</v>
+        <v>421</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>621</v>
+        <v>422</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" ht="37" customHeight="1" spans="3:8">
       <c r="C32" s="21"/>
       <c r="D32" s="25" t="s">
-        <v>622</v>
+        <v>423</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>623</v>
+        <v>424</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -7409,7 +7510,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="25"/>
       <c r="E33" s="23" t="s">
-        <v>624</v>
+        <v>425</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -7418,10 +7519,10 @@
     <row r="34" ht="83" customHeight="1" spans="3:8">
       <c r="C34" s="21"/>
       <c r="D34" s="22" t="s">
-        <v>625</v>
+        <v>426</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>626</v>
+        <v>427</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -7430,29 +7531,29 @@
     <row r="35" ht="44" customHeight="1" spans="3:8">
       <c r="C35" s="21"/>
       <c r="D35" s="22" t="s">
-        <v>627</v>
+        <v>428</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>629</v>
+        <v>430</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>630</v>
+        <v>431</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" ht="27" spans="3:8">
       <c r="C36" s="21"/>
       <c r="D36" s="27" t="s">
-        <v>631</v>
+        <v>432</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>632</v>
+        <v>433</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>633</v>
+        <v>434</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="3"/>
@@ -7461,10 +7562,10 @@
       <c r="C37" s="21"/>
       <c r="D37" s="27"/>
       <c r="E37" s="25" t="s">
-        <v>634</v>
+        <v>435</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>635</v>
+        <v>436</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
@@ -7474,10 +7575,10 @@
       <c r="D38" s="27"/>
       <c r="E38" s="25"/>
       <c r="F38" s="24" t="s">
-        <v>636</v>
+        <v>437</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>637</v>
+        <v>438</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -7486,10 +7587,10 @@
       <c r="D39" s="27"/>
       <c r="E39" s="25"/>
       <c r="F39" s="24" t="s">
-        <v>638</v>
+        <v>439</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>639</v>
+        <v>440</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -7498,10 +7599,10 @@
       <c r="D40" s="27"/>
       <c r="E40" s="25"/>
       <c r="F40" s="17" t="s">
-        <v>640</v>
+        <v>441</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>641</v>
+        <v>442</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -7510,20 +7611,20 @@
       <c r="D41" s="27"/>
       <c r="E41" s="25"/>
       <c r="F41" s="17" t="s">
-        <v>642</v>
+        <v>443</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>643</v>
+        <v>444</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" ht="34" customHeight="1" spans="3:8">
       <c r="C42" s="21"/>
       <c r="D42" s="22" t="s">
-        <v>644</v>
+        <v>445</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>645</v>
+        <v>446</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7531,13 +7632,13 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="2" t="s">
-        <v>646</v>
+        <v>447</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>647</v>
+        <v>448</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>648</v>
+        <v>449</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -7546,10 +7647,10 @@
     <row r="44" ht="53" customHeight="1" spans="3:8">
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>649</v>
+        <v>450</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>650</v>
+        <v>451</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -7558,10 +7659,10 @@
     <row r="45" ht="27" spans="3:8">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>66</v>
+        <v>452</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>651</v>
+        <v>453</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -7570,10 +7671,10 @@
     <row r="46" ht="54" spans="3:8">
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
-        <v>69</v>
+        <v>454</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -7581,29 +7682,29 @@
     </row>
     <row r="47" ht="99" customHeight="1" spans="3:8">
       <c r="C47" s="2" t="s">
-        <v>653</v>
+        <v>456</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>594</v>
+        <v>395</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>654</v>
+        <v>457</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>655</v>
+        <v>458</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>656</v>
+        <v>459</v>
       </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" ht="48" customHeight="1" spans="3:8">
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>657</v>
+        <v>460</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>658</v>
+        <v>461</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -7612,13 +7713,13 @@
     <row r="49" ht="34" customHeight="1" spans="3:8">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>659</v>
+        <v>462</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>660</v>
+        <v>463</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>661</v>
+        <v>464</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -7626,13 +7727,13 @@
     <row r="50" ht="34" customHeight="1" spans="3:8">
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>662</v>
+        <v>465</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>663</v>
+        <v>466</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>664</v>
+        <v>467</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -7640,13 +7741,13 @@
     <row r="51" ht="107" customHeight="1" spans="3:8">
       <c r="C51" s="2"/>
       <c r="D51" s="30" t="s">
-        <v>665</v>
+        <v>468</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>666</v>
+        <v>469</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>667</v>
+        <v>470</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -7655,10 +7756,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
-        <v>668</v>
+        <v>471</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>669</v>
+        <v>472</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -7666,13 +7767,13 @@
     <row r="53" ht="40.5" spans="3:8">
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
-        <v>670</v>
+        <v>473</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>671</v>
+        <v>474</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>672</v>
+        <v>475</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -7680,16 +7781,16 @@
     <row r="54" spans="3:8">
       <c r="C54" s="2"/>
       <c r="D54" s="30" t="s">
-        <v>673</v>
+        <v>476</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>674</v>
+        <v>477</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>675</v>
+        <v>478</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>676</v>
+        <v>479</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -7697,7 +7798,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="30"/>
       <c r="E55" s="3" t="s">
-        <v>677</v>
+        <v>480</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="30"/>
@@ -7707,10 +7808,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="30"/>
       <c r="E56" s="4" t="s">
-        <v>678</v>
+        <v>481</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>679</v>
+        <v>482</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="3"/>
@@ -7718,13 +7819,13 @@
     <row r="57" ht="77" customHeight="1" spans="3:8">
       <c r="C57" s="2"/>
       <c r="D57" s="32" t="s">
-        <v>680</v>
+        <v>483</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>681</v>
+        <v>484</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>682</v>
+        <v>485</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -7733,10 +7834,10 @@
       <c r="C58" s="2"/>
       <c r="D58" s="32"/>
       <c r="E58" s="4" t="s">
-        <v>683</v>
+        <v>486</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>684</v>
+        <v>487</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -7745,13 +7846,13 @@
       <c r="C59" s="2"/>
       <c r="D59" s="32"/>
       <c r="E59" s="4" t="s">
-        <v>685</v>
+        <v>488</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>686</v>
+        <v>489</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>687</v>
+        <v>490</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -7759,13 +7860,13 @@
       <c r="C60" s="2"/>
       <c r="D60" s="32"/>
       <c r="E60" s="4" t="s">
-        <v>688</v>
+        <v>491</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>689</v>
+        <v>492</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>690</v>
+        <v>493</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -7773,10 +7874,10 @@
       <c r="C61" s="2"/>
       <c r="D61" s="32"/>
       <c r="E61" s="3" t="s">
-        <v>691</v>
+        <v>494</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>692</v>
+        <v>495</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
@@ -7785,13 +7886,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="32"/>
       <c r="E62" s="33" t="s">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>694</v>
+        <v>497</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>695</v>
+        <v>498</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -7799,13 +7900,13 @@
       <c r="C63" s="2"/>
       <c r="D63" s="32"/>
       <c r="E63" s="34" t="s">
-        <v>696</v>
+        <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>697</v>
+        <v>500</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>698</v>
+        <v>501</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -7814,13 +7915,13 @@
       <c r="D64" s="32"/>
       <c r="E64" s="34"/>
       <c r="F64" s="30" t="s">
-        <v>699</v>
+        <v>502</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>700</v>
+        <v>503</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>701</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" ht="100" customHeight="1" spans="3:8">
@@ -7829,10 +7930,10 @@
       <c r="E65" s="34"/>
       <c r="F65" s="30"/>
       <c r="G65" s="4" t="s">
-        <v>702</v>
+        <v>505</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>703</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" ht="54" customHeight="1" spans="3:8">
@@ -7840,37 +7941,37 @@
       <c r="D66" s="32"/>
       <c r="E66" s="34"/>
       <c r="F66" s="3" t="s">
-        <v>527</v>
+        <v>328</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>704</v>
+        <v>507</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" ht="74" customHeight="1" spans="5:5">
       <c r="E67" t="s">
-        <v>705</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="3:6">
       <c r="C74" s="2" t="s">
-        <v>706</v>
+        <v>509</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>707</v>
+        <v>510</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>708</v>
+        <v>511</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>709</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="2"/>
       <c r="D75" s="7"/>
       <c r="E75" s="3" t="s">
-        <v>710</v>
+        <v>513</v>
       </c>
       <c r="F75" s="36"/>
     </row>
@@ -7878,33 +7979,33 @@
       <c r="C76" s="2"/>
       <c r="D76" s="9"/>
       <c r="E76" s="3" t="s">
-        <v>711</v>
+        <v>514</v>
       </c>
       <c r="F76" s="37"/>
     </row>
     <row r="77" ht="27" spans="3:7">
       <c r="C77" s="2"/>
       <c r="D77" s="35" t="s">
-        <v>712</v>
+        <v>515</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>713</v>
+        <v>516</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>714</v>
+        <v>517</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>715</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="2"/>
       <c r="D78" s="36"/>
       <c r="E78" s="3" t="s">
-        <v>716</v>
+        <v>519</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>717</v>
+        <v>520</v>
       </c>
       <c r="G78" s="40"/>
     </row>
@@ -7912,7 +8013,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="37"/>
       <c r="E79" s="3" t="s">
-        <v>718</v>
+        <v>521</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="41"/>
@@ -7920,23 +8021,23 @@
     <row r="80" spans="3:6">
       <c r="C80" s="2"/>
       <c r="D80" s="30" t="s">
-        <v>719</v>
+        <v>522</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>720</v>
+        <v>523</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>721</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="3:6">
       <c r="C81" s="2"/>
       <c r="D81" s="30"/>
       <c r="E81" s="3" t="s">
-        <v>722</v>
+        <v>525</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>723</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="3:6">
@@ -7944,50 +8045,50 @@
       <c r="D82" s="30"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>724</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" ht="27" spans="3:6">
       <c r="C83" s="2"/>
       <c r="D83" s="30"/>
       <c r="E83" s="3" t="s">
-        <v>725</v>
+        <v>528</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>726</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="62" customHeight="1" spans="3:6">
       <c r="C84" s="2"/>
       <c r="D84" s="30" t="s">
-        <v>727</v>
+        <v>530</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>728</v>
+        <v>531</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>729</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="108" spans="3:6">
       <c r="C85" s="2"/>
       <c r="D85" s="3" t="s">
-        <v>730</v>
+        <v>533</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>731</v>
+        <v>534</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>732</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="3:6">
       <c r="C86" s="2"/>
       <c r="D86" s="43" t="s">
-        <v>733</v>
+        <v>536</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>734</v>
+        <v>537</v>
       </c>
       <c r="F86" s="3"/>
     </row>
@@ -7995,91 +8096,91 @@
       <c r="C87" s="2"/>
       <c r="D87" s="36"/>
       <c r="E87" s="44" t="s">
-        <v>735</v>
+        <v>538</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>736</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" ht="74" customHeight="1" spans="3:6">
       <c r="C88" s="2"/>
       <c r="D88" s="36"/>
       <c r="E88" s="44" t="s">
-        <v>737</v>
+        <v>540</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>738</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" ht="26" customHeight="1" spans="3:6">
       <c r="C89" s="2"/>
       <c r="D89" s="37"/>
       <c r="E89" s="3" t="s">
-        <v>739</v>
+        <v>542</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>740</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="2"/>
       <c r="D90" s="35" t="s">
-        <v>741</v>
+        <v>544</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>742</v>
+        <v>545</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>743</v>
+        <v>546</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="C91" s="2"/>
       <c r="D91" s="36"/>
       <c r="E91" s="3" t="s">
-        <v>744</v>
+        <v>547</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>745</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="3:6">
       <c r="C92" s="2"/>
       <c r="D92" s="36"/>
       <c r="E92" s="8" t="s">
-        <v>746</v>
+        <v>549</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>747</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="C93" s="2"/>
       <c r="D93" s="36"/>
       <c r="E93" s="3" t="s">
-        <v>748</v>
+        <v>551</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>749</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" spans="3:6">
       <c r="C94" s="2"/>
       <c r="D94" s="37"/>
       <c r="E94" s="3" t="s">
-        <v>750</v>
+        <v>553</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>751</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" ht="27" spans="3:6">
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>752</v>
+        <v>555</v>
       </c>
       <c r="F95" s="3"/>
     </row>
@@ -8119,7 +8220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B8:G23"/>
@@ -8140,16 +8241,16 @@
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>753</v>
+        <v>556</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>754</v>
+        <v>557</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>755</v>
+        <v>558</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>756</v>
+        <v>559</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8158,10 +8259,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>757</v>
+        <v>560</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>758</v>
+        <v>561</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8170,10 +8271,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>759</v>
+        <v>562</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>760</v>
+        <v>563</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8182,10 +8283,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>761</v>
+        <v>564</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>762</v>
+        <v>565</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8193,16 +8294,16 @@
     <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>763</v>
+        <v>566</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>764</v>
+        <v>567</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>765</v>
+        <v>568</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>766</v>
+        <v>569</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -8212,10 +8313,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>767</v>
+        <v>570</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>768</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8223,10 +8324,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
-        <v>769</v>
+        <v>572</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>770</v>
+        <v>573</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8236,7 +8337,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>771</v>
+        <v>574</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -8246,7 +8347,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8256,7 +8357,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>773</v>
+        <v>576</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -8266,7 +8367,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>774</v>
+        <v>577</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -8276,7 +8377,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>775</v>
+        <v>578</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -8285,7 +8386,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>776</v>
+        <v>579</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
@@ -8294,7 +8395,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>777</v>
+        <v>580</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8304,7 +8405,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>778</v>
+        <v>581</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8314,7 +8415,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>779</v>
+        <v>582</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8335,12 +8436,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D15:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -8351,2432 +8452,33 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>780</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>781</v>
+        <v>584</v>
       </c>
       <c r="G17" t="s">
-        <v>782</v>
+        <v>585</v>
       </c>
       <c r="H17" t="s">
-        <v>783</v>
+        <v>586</v>
       </c>
       <c r="I17" t="s">
-        <v>784</v>
+        <v>587</v>
       </c>
       <c r="J17" t="s">
-        <v>785</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>786</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B6:I14"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
-    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
-    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
-    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="162" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="162" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="81"/>
-      <c r="C7" s="162" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="81"/>
-      <c r="C8" s="162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="81"/>
-      <c r="C9" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="81"/>
-      <c r="C10" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="81"/>
-      <c r="C11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="176" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="81"/>
-      <c r="C12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="176" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="176" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="I13" s="190"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B6:B12"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A11:G30"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="7.38938053097345" customWidth="1"/>
-    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
-    <col min="3" max="4" width="17.7610619469027" customWidth="1"/>
-    <col min="5" max="5" width="44.9380530973451" customWidth="1"/>
-    <col min="6" max="6" width="21.7699115044248" customWidth="1"/>
-    <col min="7" max="7" width="53.4778761061947" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="180" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="183" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="185" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="186"/>
-    </row>
-    <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A13:A30"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E21:E25"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B5:E10"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="20.9823008849558" customWidth="1"/>
-    <col min="4" max="4" width="55.1592920353982" customWidth="1"/>
-    <col min="5" max="5" width="72.4159292035398" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="175" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="175"/>
-      <c r="C6" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="176" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="177" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="178" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="179" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="179" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="177"/>
-      <c r="C8" s="178" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="178" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="179" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="177"/>
-      <c r="C9" s="178" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="179" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="177"/>
-      <c r="C10" s="178" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="179" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B10"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:G20"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
-    <col min="4" max="4" width="13.5752212389381" customWidth="1"/>
-    <col min="5" max="5" width="34.3893805309735" customWidth="1"/>
-    <col min="6" max="6" width="31.5398230088496" customWidth="1"/>
-    <col min="7" max="7" width="34.646017699115" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="67.5" spans="2:7">
-      <c r="B3" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="167" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="168" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="168" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="167" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="168" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="168" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" ht="175.5" spans="2:7">
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="167" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="2:7">
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="169" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="168" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="171" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="172" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="167" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="168" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="167"/>
-    </row>
-    <row r="9" ht="121.5" spans="2:7">
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="168" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="170" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="168" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="166"/>
-      <c r="C10" s="166" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="174" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="174" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="174" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="174" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="166"/>
-      <c r="C16" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="174" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="167" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="174"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="174" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="174"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="174" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="174"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="174" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="174"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="169"/>
-      <c r="G20" s="174"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G7:G8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="20.8495575221239" customWidth="1"/>
-    <col min="2" max="2" width="58.0176991150442" customWidth="1"/>
-    <col min="3" max="3" width="70.4247787610619" customWidth="1"/>
-    <col min="4" max="4" width="60.1238938053097" customWidth="1"/>
-    <col min="5" max="5" width="49.1238938053097" customWidth="1"/>
-    <col min="6" max="6" width="50.3185840707965" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="146" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-    </row>
-    <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="149" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-    </row>
-    <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="150" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="149"/>
-    </row>
-    <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="149"/>
-    </row>
-    <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="150" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="149"/>
-    </row>
-    <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="148"/>
-      <c r="B6" s="149" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="149"/>
-    </row>
-    <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="149"/>
-    </row>
-    <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="150" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="149"/>
-    </row>
-    <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="150" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="149"/>
-    </row>
-    <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="148"/>
-      <c r="B11" s="149" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="149"/>
-    </row>
-    <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="151" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="152" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="153"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="152" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="152" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="153"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="152" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="153"/>
-      <c r="B15" s="151" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="155"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="153"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="153"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="152" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="153"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="152" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="152" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="153"/>
-      <c r="B20" s="151" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="152" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="154"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="152" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="152" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="157" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="158" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="158" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="159"/>
-      <c r="B23" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="158" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="159"/>
-      <c r="B24" s="157" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="159"/>
-      <c r="B25" s="157" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="158" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="158"/>
-    </row>
-    <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="159"/>
-      <c r="B26" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="159"/>
-      <c r="B27" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="160" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="159"/>
-      <c r="B28" s="157" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="158" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="158" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="159"/>
-      <c r="B29" s="157" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="158" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="161"/>
-      <c r="B30" s="157" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="160" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" ht="60" customHeight="1"/>
-    <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="162" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="B34" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="164"/>
-      <c r="B35" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="165"/>
-    </row>
-    <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="162" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="162" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="165"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E47"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
-    <col min="2" max="2" width="31.929203539823" customWidth="1"/>
-    <col min="3" max="3" width="67.9911504424779" customWidth="1"/>
-    <col min="4" max="4" width="64.0088495575221" customWidth="1"/>
-    <col min="5" max="5" width="79.0619469026549" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="120"/>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="121"/>
-    </row>
-    <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="121"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="121"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="123" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="121"/>
-    </row>
-    <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="123" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="121"/>
-    </row>
-    <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="119" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="124" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="119" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="119" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="119"/>
-    </row>
-    <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="124" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="119"/>
-    </row>
-    <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="117"/>
-      <c r="B11" s="118" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="119"/>
-    </row>
-    <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="119"/>
-    </row>
-    <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="119" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="119"/>
-    </row>
-    <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="119" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="119"/>
-    </row>
-    <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="117"/>
-      <c r="B15" s="125" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="117"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="119" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="119" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="119" t="s">
-        <v>247</v>
-      </c>
-      <c r="E18" s="119" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="127" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="128" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="129"/>
-    </row>
-    <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="127"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="121" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="132" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" s="133"/>
-    </row>
-    <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="127"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="E22" s="126"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="135" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="136" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" s="117"/>
-    </row>
-    <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="119" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="117"/>
-    </row>
-    <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="137"/>
-      <c r="B25" s="139" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="137"/>
-      <c r="B26" s="139" t="s">
-        <v>269</v>
-      </c>
-      <c r="C26" s="119" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E26" s="118" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="137"/>
-      <c r="B27" s="136" t="s">
-        <v>273</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>274</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="117"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="137"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="119" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" s="117"/>
-    </row>
-    <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="137"/>
-      <c r="B29" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="117"/>
-    </row>
-    <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="137"/>
-      <c r="B30" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E30" s="117"/>
-    </row>
-    <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="137"/>
-      <c r="B31" s="118" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="121" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="E31" s="117"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="137"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E32" s="117"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="137"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E33" s="117"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="137"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E34" s="117"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="137"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E35" s="117"/>
-    </row>
-    <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="137"/>
-      <c r="B36" s="140" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="118"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="137"/>
-      <c r="B37" s="118" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37" s="121" t="s">
-        <v>295</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E37" s="117"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="137"/>
-      <c r="B38" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="E38" s="117"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="137"/>
-      <c r="B39" s="118" t="s">
-        <v>300</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>301</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="117"/>
-    </row>
-    <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="137"/>
-      <c r="B40" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C40" s="119" t="s">
-        <v>303</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="E40" s="117"/>
-    </row>
-    <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="137"/>
-      <c r="B41" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="119" t="s">
-        <v>306</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="117"/>
-    </row>
-    <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="137"/>
-      <c r="B42" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C42" s="141" t="s">
-        <v>308</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="117"/>
-    </row>
-    <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="135" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>310</v>
-      </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="117"/>
-    </row>
-    <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="137"/>
-      <c r="B44" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C44" s="144" t="s">
-        <v>312</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="137"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="E45" s="123" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="137"/>
-      <c r="B46" s="118" t="s">
-        <v>317</v>
-      </c>
-      <c r="C46" s="144" t="s">
-        <v>318</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="E46" s="141" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="145"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="E47" s="141" t="s">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A1:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E20:E22"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="28.6017699115044" customWidth="1"/>
-    <col min="2" max="2" width="45.3451327433628" customWidth="1"/>
-    <col min="3" max="3" width="36.5044247787611" customWidth="1"/>
-    <col min="4" max="4" width="70.5398230088496" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="96"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" s="96"/>
-    </row>
-    <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="96"/>
-    </row>
-    <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="96"/>
-    </row>
-    <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="98"/>
-      <c r="B6" s="95" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="D6" s="99"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="100"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="100"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="93" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="100"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="100"/>
-      <c r="B11" s="92" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>347</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="100"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="92" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="100"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="106" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="100"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="106" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="100"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="105" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="100"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101" t="s">
-        <v>309</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="100"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="95" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="108"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="100"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="95" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" s="108"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="100"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="95" t="s">
-        <v>357</v>
-      </c>
-      <c r="D20" s="109"/>
-    </row>
-    <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="110"/>
-      <c r="B21" s="92" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="100" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>362</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="D22" s="92"/>
-    </row>
-    <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="100"/>
-      <c r="B23" s="112" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>365</v>
-      </c>
-      <c r="D23" s="93"/>
-    </row>
-    <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="100"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="93" t="s">
-        <v>366</v>
-      </c>
-      <c r="D24" s="93"/>
-    </row>
-    <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="100"/>
-      <c r="B25" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>368</v>
-      </c>
-      <c r="D25" s="114"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="100"/>
-      <c r="B26" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="100"/>
-      <c r="B27" s="101" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>372</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="100"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="97" t="s">
-        <v>374</v>
-      </c>
-      <c r="D28" s="93" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="100"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="97" t="s">
-        <v>376</v>
-      </c>
-      <c r="D29" s="93" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="110"/>
-      <c r="B30" s="92" t="s">
-        <v>378</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>379</v>
-      </c>
-      <c r="D30" s="93"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="100" t="s">
-        <v>380</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>381</v>
-      </c>
-      <c r="C31" s="93" t="s">
-        <v>382</v>
-      </c>
-      <c r="D31" s="93"/>
-    </row>
-    <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="100"/>
-      <c r="B32" s="112" t="s">
-        <v>383</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="D32" s="93" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="93" t="s">
-        <v>386</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="93" t="s">
-        <v>388</v>
-      </c>
-      <c r="D34" s="93" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="100"/>
-      <c r="B35" s="112" t="s">
-        <v>390</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>391</v>
-      </c>
-      <c r="D35" s="93" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="100"/>
-      <c r="B36" s="112" t="s">
-        <v>393</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>394</v>
-      </c>
-      <c r="D36" s="93" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="100"/>
-      <c r="B37" s="112" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" s="115" t="s">
-        <v>397</v>
-      </c>
-      <c r="D37" s="116"/>
-    </row>
-    <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="100"/>
-      <c r="B38" s="112" t="s">
-        <v>398</v>
-      </c>
-      <c r="C38" s="115" t="s">
-        <v>399</v>
-      </c>
-      <c r="D38" s="116" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="110"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="97" t="s">
-        <v>401</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>402</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D17:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
-    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
-    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
-    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
-    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="87" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>404</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>412</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>413</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>414</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>416</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="88"/>
-    </row>
-    <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="87"/>
-      <c r="B8" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F5:F6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/002.Artificial_Intelligence/002.machine_learning/汇总.xlsx
+++ b/002.Artificial_Intelligence/002.machine_learning/汇总.xlsx
@@ -4,18 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="1.回归" sheetId="4" r:id="rId1"/>
-    <sheet name="2.分类" sheetId="3" r:id="rId2"/>
-    <sheet name="3.聚类" sheetId="7" r:id="rId3"/>
-    <sheet name="评估" sheetId="5" r:id="rId4"/>
-    <sheet name="优化" sheetId="6" r:id="rId5"/>
-    <sheet name="cv2" sheetId="12" r:id="rId6"/>
-    <sheet name="深1" sheetId="13" r:id="rId7"/>
-    <sheet name="推荐算法" sheetId="16" r:id="rId8"/>
-    <sheet name="TF" sheetId="17" r:id="rId9"/>
+    <sheet name="自我介绍" sheetId="14" r:id="rId1"/>
+    <sheet name="0.数学指标" sheetId="9" r:id="rId2"/>
+    <sheet name="0.AI体系" sheetId="10" r:id="rId3"/>
+    <sheet name="0.分类" sheetId="11" r:id="rId4"/>
+    <sheet name="0.预处理" sheetId="2" r:id="rId5"/>
+    <sheet name="基础" sheetId="1" r:id="rId6"/>
+    <sheet name="1.回归" sheetId="4" r:id="rId7"/>
+    <sheet name="2.分类" sheetId="3" r:id="rId8"/>
+    <sheet name="3.聚类" sheetId="7" r:id="rId9"/>
+    <sheet name="评估" sheetId="5" r:id="rId10"/>
+    <sheet name="优化" sheetId="6" r:id="rId11"/>
+    <sheet name="cv2" sheetId="12" r:id="rId12"/>
+    <sheet name="深1" sheetId="13" r:id="rId13"/>
+    <sheet name="推荐算法" sheetId="16" r:id="rId14"/>
+    <sheet name="TF" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +41,922 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="787">
+  <si>
+    <t>首先我学习了机器学习，针对不同问题使用不同的方法解决，回归问题，的掌握了线性模型及其变种、决策树、集成学习、支持向量机，
+分类问题：逻辑回归、决策树回归、支持向量机、朴素贝页斯。
+聚类问题：k-means、噪声密度、凝聚层次。</t>
+  </si>
+  <si>
+    <t>numpy和python中的数学指标</t>
+  </si>
+  <si>
+    <t>算数平均值</t>
+  </si>
+  <si>
+    <t>平均值的作用：算数平均值表示——“对增值进行一个无偏估计”</t>
+  </si>
+  <si>
+    <t>m = np.mean(array)   #np的接口
+m = array.mean()  #pandas中Series的接口
+m = df.mean(axis=0)  #pandas中Dataframe的接口</t>
+  </si>
+  <si>
+    <t>加权平均值</t>
+  </si>
+  <si>
+    <t>求平均值时，考虑 "不同样本" 的重要性，可以为 "不同的样本赋予不同的权重"</t>
+  </si>
+  <si>
+    <t>ap = np.average(array,weights=volumes)</t>
+  </si>
+  <si>
+    <t>最小值、最大值</t>
+  </si>
+  <si>
+    <t>np.max()
+np.min()</t>
+  </si>
+  <si>
+    <t>极差</t>
+  </si>
+  <si>
+    <t>最大值减去最不小值</t>
+  </si>
+  <si>
+    <t>np.ptp()</t>
+  </si>
+  <si>
+    <t>最值索引</t>
+  </si>
+  <si>
+    <t>（1）np用法  //返回 "位置" 索引 ，如果返回值相同，会取前面一个
+print(np.argmax(a),np.argmin(a))
+（2）pandas中 //返回 "标签" 索引
+print(series.idxmax(),series.idxmin())  
+print(dataframe.idxmax(),dataframe.idxmin())</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>和平均值有点像
+当特殊数据比较多的时候，求平均值，特殊数据一定会影响整体数据的分布状态
+所以这时候中位数就派上了用场</t>
+  </si>
+  <si>
+    <t>np.median()</t>
+  </si>
+  <si>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>"评估一组数据" 震荡的幅度。
+ 标准差大好，还是标准差小好?
+   标准差 + 平均值结合起来分析
+   （1）"标准差" 比较小
+   （2）且 "平均值" 比较高
+   说明：又好又稳定</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> （1）求平均值
+ （2）求离差(deviation): 表示某组数据距离某个中心点偏离程度
+ （3）求离差方 //因为有负数，所以(离差的平方)
+ （4）方差：  //对 "离差方"  求均值，
+ （5）校准差： //对 "方差"开根号，就是标准差//因为前面平方过
+</t>
+  </si>
+  <si>
+    <t>正太分布</t>
+  </si>
+  <si>
+    <t>越接近  "期望值"  的部分，出现的概率越大。
+越远离  "期望值"  的部分，出现的概率越小。</t>
+  </si>
+  <si>
+    <t>高斯分布</t>
+  </si>
+  <si>
+    <t>artificial    intelligence
+读：阿尔提（费学） 赢特ne（jin ce）</t>
+  </si>
+  <si>
+    <t>人工智能做的主要就是预测
+   预测这张图的内容，
+   预测这张人脸是谁
+   预测它这句话说的是什么
+   预测薪资</t>
+  </si>
+  <si>
+    <t>AI体系</t>
+  </si>
+  <si>
+    <t>两大技术</t>
+  </si>
+  <si>
+    <t>（传统）机器学习</t>
+  </si>
+  <si>
+    <t>"机器学习"代码量不大，因为有对应的框架封装了接口</t>
+  </si>
+  <si>
+    <t>机器学习分类</t>
+  </si>
+  <si>
+    <t>基于 “模型的学习”</t>
+  </si>
+  <si>
+    <t>根据 "数据的分布状态"，找到一个数学公式去表达它。
+如：线性回归、岭回归、Lasso回归、多项式回归。</t>
+  </si>
+  <si>
+    <t>基于 “实例的学习”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "相似的输入" 必定产生 "相似的输出"。如：决策树</t>
+  </si>
+  <si>
+    <t>基本流程</t>
+  </si>
+  <si>
+    <t>（1）加载数据
+（2）整理输入输出
+（3）划分训练集和测试集
+（4）创建模型
+（5）训练
+（6）预测</t>
+  </si>
+  <si>
+    <t>深度学习</t>
+  </si>
+  <si>
+    <t>"深度学习"的代码量动不动就2000行，比较大</t>
+  </si>
+  <si>
+    <t>从学习角度</t>
+  </si>
+  <si>
+    <t>监督学习</t>
+  </si>
+  <si>
+    <t>无监督学习</t>
+  </si>
+  <si>
+    <t>强化学习</t>
+  </si>
+  <si>
+    <t>阿尔法狗就是苦于  "深度学习"  做的 "强化学习"</t>
+  </si>
+  <si>
+    <t>主要方向</t>
+  </si>
+  <si>
+    <t>计算机视觉</t>
+  </si>
+  <si>
+    <t>如何让机器理解图像和视频中的内容</t>
+  </si>
+  <si>
+    <t>最简单的图像分类</t>
+  </si>
+  <si>
+    <t>局部图像，目标检测</t>
+  </si>
+  <si>
+    <t>图像分割</t>
+  </si>
+  <si>
+    <t>拍照识别</t>
+  </si>
+  <si>
+    <t>语音识别</t>
+  </si>
+  <si>
+    <t>文本转语音、语音转文本</t>
+  </si>
+  <si>
+    <t>自然语言处理</t>
+  </si>
+  <si>
+    <t>人工智能皇冠上的明珠</t>
+  </si>
+  <si>
+    <t>专家系统</t>
+  </si>
+  <si>
+    <t>规划与推理</t>
+  </si>
+  <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>数据分两类</t>
+  </si>
+  <si>
+    <t>连续数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在某个 "区间范围内 任意的值" 都可能出现的 "情况" 
+就叫 "连续数据"
+典型的代表就是 "钱" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   例如：我们班同学今天吃饭花了多少钱? 0-200
+     19.1 26.6 33.3 18.8 52 66 26 32.1 188.8 ......
+     //这组数据有一个什么样的特点? //不是规律，是特点
+     //特点 ： 0~200以内的任意值都可能出现</t>
+  </si>
+  <si>
+    <t>离散数据</t>
+  </si>
+  <si>
+    <t>只有几个 "可选值" 的这种情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   收集一下：我们班同学的性别
+     男 女 男 女 男  女  女 男  女 男 男 男 女  男 女 男 男 ......
+     不是男，就是女，不会出现其它情况
+     男 和 女 就是离散值
+     只有两个值的就叫 "二元离散值"
+     有三个 "离散值" ，就叫三元或多元离散值。</t>
+  </si>
+  <si>
+    <t>问题分类</t>
+  </si>
+  <si>
+    <t>回归问题</t>
+  </si>
+  <si>
+    <t>"有监督学习"，有对错，
+在有监督的基础之上得到 "连续的输出"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   .例如：
+  - 根据房屋面积、地段、修建年代以及其它条件预测房屋价格  //"价格"指钱，所以说是 "连续数据"
+  - 根据各种外部条件预测某支股票的价格  //又是价格，还是"钱"，连续数据
+  - 根据农业、气象等数据预测粮食收成   //收成，以吨为单位，1吨，2吨。。。，所以是连续数据
+  - 计算两个人脸的相似度     //相似度 0 ~ 1 连续数据
+//==============
+   "回归" 这个术语： 使用 "源于统计学"，
+       最初是 "用来描述观测数据" 倾向于 "向平均值回归" 的现象。</t>
+  </si>
+  <si>
+    <t>分类问题</t>
+  </si>
+  <si>
+    <t>"有监督学习"，有对错。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 手写体识别（10个类别分类问题）//0-9 ，10个数字，其实是想得到，写的到底是1，还是2，所以是分类问题
+           //结果，只会在这3个可 选值之一
+  - 水果、鲜花、动物识别  //结果只能是这三个之一。 离散值
+  - 工业产品瑕疵检测（良品、次品二分类问题） //不是好的，就是坏的。 离散值
+  - 识别一个句子表达的情绪（正面、负面、中性）// 离散值
+</t>
+  </si>
+  <si>
+    <t>聚类问题</t>
+  </si>
+  <si>
+    <t>无"监督"，只有好坏，没有对错</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /**
+   只有输入，没有输出，
+  */
+  - 根据 "一批麦粒" 的数据，判断哪些属于 "同一个品种"     //聚类，分成一类，
+  - 根据客户在电商网站的浏览和购买历史，判断哪些客户对某件商品感兴趣  //聚类，
+  - 判断哪些客户具有更高的相似度  </t>
+  </si>
+  <si>
+    <t>降维问题</t>
+  </si>
+  <si>
+    <t>主要是从数学角度变化数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  在 "性能损失尽可能小" 的情况下，降低 "数据的复杂度" ，"数据规模" 缩小都称为 "降维问题".
+  "规划缩小" ，计算简单了，都叫 "降维"
+  数据 "特别大"，数据 "特别多"，这种情况就需要降维。
+  比较数据有5个 特征，我想变成2个特征，
+  通过 "正交变换" 、"斜方差举证"，从数据角度把变换、映射
+  这样就能：通过用 "两个值" 去表达"5个数据"。
+  把更 "高维度的数据" 用更少的特殊去表示。
+</t>
+  </si>
+  <si>
+    <t>数据预处理</t>
+  </si>
+  <si>
+    <t>数字类型</t>
+  </si>
+  <si>
+    <t>特征归一化
+（特征：即列）</t>
+  </si>
+  <si>
+    <t>标准化
+也叫：均值移除
+也叫零均值归一化
+（关注：列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以 "列" 为单位,让样本矩阵中的  " 每一列的平均值为0" ， "标准差为1" ，
+目的：缩小列与列之间的差异？
+</t>
+  </si>
+  <si>
+    <t>应用场景： 列与列之间差异太大
+如：根据  "身高" 和 "体重"，预测身体健康指数。</t>
+  </si>
+  <si>
+    <t>范围缩放
+线性函数归一化
+（关注：列）</t>
+  </si>
+  <si>
+    <t>将每一列的 "最小值" 和 "最大值" 设定为  "相同的区间"
+最小值一般设置为0，最大值设置为1。</t>
+  </si>
+  <si>
+    <t>范围缩放 也是用来处理  "列与与差距过大" 的情况
+     只不过 "范围缩放" 的处理方式不一样</t>
+  </si>
+  <si>
+    <t>归一化 normalize
+（关注：行）</t>
+  </si>
+  <si>
+    <t>反映"样本中" 的 "各个特征" 所占 "比率"，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sklearn接口
+   sp.normalize(原始样本，norm='12')
+   /**
+    norm 指范数
+    # l1:  l1范数，除以向量中 "各元素绝对值之和"
+    # l2:  l2范数，除以向量中 "各元素平方之和"
+    绝对值 和 平方都是为了防止负数
+   */</t>
+  </si>
+  <si>
+    <t>二值化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">根据一个事先给定的阈值，用0或1 来表示特征值是否超过阈值，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(不可逆)</t>
+    </r>
+  </si>
+  <si>
+    <t>根据一个事先给定的阈值，用0或1 来表示特征值是否超过阈值，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">独热编码
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想让数据可逆，不丢失信息细节，这里就可以使用 "独热编码"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可逆）</t>
+    </r>
+  </si>
+  <si>
+    <t>数据是离散值，才能去做。</t>
+  </si>
+  <si>
+    <t>one_hot_encoder = sp.OneHotEncoder</t>
+  </si>
+  <si>
+    <t>稀疏矩阵</t>
+  </si>
+  <si>
+    <t>标签编码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 将"字符串"转成数值类型
+    "针对离散值去做的"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">标签编码只能转 "一维数据"
+  遇到文件时，一般 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一列一列转</t>
+    </r>
+  </si>
+  <si>
+    <t>lb_encoder = sp.LabelEncoder() #定义标签编码对象
+lb_samples = lb_encoder.fit_transform(raw_samples) #执行标签编码#训练并转换
+print(lb_samples)
+print(lb_encoder.inverse_transform(lb_samples)) #逆向转换</t>
+  </si>
+  <si>
+    <t>图像类型</t>
+  </si>
+  <si>
+    <t>（1）旋转</t>
+  </si>
+  <si>
+    <t>（2）平移</t>
+  </si>
+  <si>
+    <t>（3）放大</t>
+  </si>
+  <si>
+    <t>（4）缩小</t>
+  </si>
+  <si>
+    <t>（5）二值化</t>
+  </si>
+  <si>
+    <t>（6）灰度化</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>机器学习</t>
+  </si>
+  <si>
+    <t>（1）词频逆文档频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  如：
+         国王 king    he
+            女王 queen   she</t>
+  </si>
+  <si>
+    <t>（2）词模型</t>
+  </si>
+  <si>
+    <t>（3）共线矩阵</t>
+  </si>
+  <si>
+    <t>（4）等等</t>
+  </si>
+  <si>
+    <t>（5）词嵌入、词向量，把词转成数值类型的表示，</t>
+  </si>
+  <si>
+    <t>在 "人工智能" 里面，
+（1）在机器学习中：用来 “保存数据的东西” 是数组
+（2）在深度学习中：用到的是 “张量”，张量的底层就是数组。</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>数组 与 值 进行计算</t>
+  </si>
+  <si>
+    <t>数据的"广播机制"</t>
+  </si>
+  <si>
+    <t>如：当数组*2的时候，
+   如 [1 2 3 4 5 6 ]
+   它会对2进制一个升维[2 2 2 2 2 2]
+   然后每个元素乘以对应位置的值，
+   这也就减少了循环</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>数组 与 数组 进行计算：
+对应位置进行计算</t>
+  </si>
+  <si>
+    <t>np的一些函数</t>
+  </si>
+  <si>
+    <t>np.arange(1, 10)
+np.zeros
+np.ones
+zeros_like 和 ones_like
+线性拆分：ary = np.linspace</t>
+  </si>
+  <si>
+    <t>np数组的属性</t>
+  </si>
+  <si>
+    <t>维度、形状：shape
+数据类型：dtype，布尔、整形、浮点、字符、日期、复数、自定义复合（numpy里面是“同质数组”）
+元素个数 size  ，长度 len
+维度：ndim
+元素字节数：itemsize
+T - 数组对象的转置视图
+flat - 扁平迭代器
+tolist 数组转列表</t>
+  </si>
+  <si>
+    <t>索引：</t>
+  </si>
+  <si>
+    <t>旧写法：ary[0][0][0]
+新写法：ary[0, 0, 0]</t>
+  </si>
+  <si>
+    <t>切片：</t>
+  </si>
+  <si>
+    <t>一次性拿到一部分数据（切片后的类型和原来一致）:
+（1）一维切片
+a[:3]
+a[::-1]
+a[:-4:-1]
+（2）多维切片
+ary[:1, :2]
+//===============拿到所有行，不要最后一列
+ary[:, 0:-1]
+//===============拿到所有行，只要最后一列
+ary[:, -1]</t>
+  </si>
+  <si>
+    <t>掩码</t>
+  </si>
+  <si>
+    <t>用数组索引数组
+# 创建一个列表（或数组）
+mask = [True, False, True, False, True, False, True, False, True]
+# 用数组索引一个 "列表"，正常情况是一个索引值，一个切片
+print[a[mask]]
+//========================
+（1）布尔掩码
+   （1）mask里面是 布尔值
+   （2）掩码里面元素个数和原数组元素个数要相同
+（2）索引掩码
+   mask里面是索引值，
+   //个数可以不一致，且可以重复</t>
+  </si>
+  <si>
+    <t>练习题1：求100以内3的倍数
+练习题2：求100以内能被3 和7同时整除的数</t>
+  </si>
+  <si>
+    <t>维度操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一类：不修改原始数据维度
+（1）视图变维：数据共享 reshape()、ravel()
+（2）复制变维：数据独立 flatten()
+二类：会修改原始数据的维度
+（3）就地变维：直接改变原数组对象 的维度，不返回新数组
+a.shape = (2, 4)\a.resize(2, 2, 2)
+</t>
+  </si>
+  <si>
+    <t>组合与拆分</t>
+  </si>
+  <si>
+    <t>垂直方向：
+水平方向的：
+深度方向的：</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>一组数组——Series</t>
+  </si>
+  <si>
+    <t>创建</t>
+  </si>
+  <si>
+    <t>s = pd.Series()
+data = np.array(['张三','李四','王五','赵六'])
+s = pd.Series(data)
+s = pd.Series(data,index=['100','101','102','103'])</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> （1）位置 索引
+    0 1 2 3 4 5 6 7 8 
+ （2）标签 索引
+    zs ls ww zl
+ （3）没有反向索引</t>
+  </si>
+  <si>
+    <t>Series常用属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1.values  所有值，返回 一个 ndarray  #只要值
+s1.index   所有索引，#只要索引
+s1.dtype # 数据类型
+s1.size  # 元素个数
+s1.ndm  # 固定返回1
+s1.shape # 返回 (n,) ，因为它是1维的
+</t>
+  </si>
+  <si>
+    <t>二维数组——DataFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DataFrame 每一行是一个Series，
+ DataFrame 每一列是也是一个Series，</t>
+  </si>
+  <si>
+    <t>pd.DataFrame()</t>
+  </si>
+  <si>
+    <t>DataFrame- 常用属性</t>
+  </si>
+  <si>
+    <t>axes  返回 行/列标签(index)列表 //索引有2个维度
+  //和axis有点像
+columns  //返回列标签
+index  //返回行标签
+dtypes  //返回每列的元素类型， 因为列与列可以不同，返回 Series
+empty  //空判断
+ndim  //查看维度，默认2
+size   //元素个数，如果NaN也算一个元素
+values  //返回ndarray 数据
+head(n)  //返回前n行, n默认是5
+tail(n)  //返回最后n行, n默认是5</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数值型:整数、float
+ 类别型：字符串</t>
+  </si>
+  <si>
+    <t>数据访问</t>
+  </si>
+  <si>
+    <t>增、删、改、查</t>
+  </si>
+  <si>
+    <t>数据加载与输出</t>
+  </si>
+  <si>
+    <t>数据加载：从文件中加载数据的方法</t>
+  </si>
+  <si>
+    <t>read_csv
+excel
+html
+json</t>
+  </si>
+  <si>
+    <t>数据输出：能加载，当然也能保存</t>
+  </si>
+  <si>
+    <t>dataFrame.to_csv()</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>LaTax 表达式</t>
+  </si>
+  <si>
+    <t>数学书上面的公式 排版语法 就是 LaTax 表达式。
+在  matplotlib 中是支持  LaTax 表达式语法的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \hat{a}  //预测值
+  \bar{a}  //平均值
+  \vec{a}  //向量
+  //================== 希腊字符
+  \alpha
+  \beta
+  \gamma
+  \delta
+  \epsilon
+  \pi
+  //================== 二元关系符</t>
+  </si>
+  <si>
+    <t>窗口</t>
+  </si>
+  <si>
+    <t>当我们点击 "运行" 的时候，它弹出来一个窗口，名字叫 "Figure1"
+在窗口中绘制图形，所以它是有 "窗口的概念"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plt.figure(
+  'sub-fig',   #窗口标题栏文本
+  figsize=(4, 3),  #窗口大小 &lt;元组&gt; //4指宽、3指度
+  facecolor=''  #图表的背景色 //填充颜色
+ )
+ plt.show()</t>
+  </si>
+  <si>
+    <t>子图</t>
+  </si>
+  <si>
+    <t>在一个窗口里面画多张图表</t>
+  </si>
+  <si>
+    <t>子图布局
+（1）矩阵式布局
+（2）网格式布局
+（3）自由式布局</t>
+  </si>
+  <si>
+    <t>图形的样式</t>
+  </si>
+  <si>
+    <t>实线、虚线、颜色、图例、显示范围、刻度、平面坐标、特殊点、点的形状、等。</t>
+  </si>
+  <si>
+    <t>基础图</t>
+  </si>
+  <si>
+    <t>直线、线段、正、余弦等等。</t>
+  </si>
+  <si>
+    <t>np.sin(x)
+np.cos(x)</t>
+  </si>
+  <si>
+    <t>成型图-散点图</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  把 “一个样本” 做成点画在 图当中。
+  散点图，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查看整体的分布状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>plt.scatter</t>
+  </si>
+  <si>
+    <t>成型图-填充图</t>
+  </si>
+  <si>
+    <t>填充图 （用的少，了解即可）</t>
+  </si>
+  <si>
+    <t>plt.fill_between</t>
+  </si>
+  <si>
+    <t>成型图-柱状图、条形图</t>
+  </si>
+  <si>
+    <t>条形图 （用的比较多）</t>
+  </si>
+  <si>
+    <t>plt.bar</t>
+  </si>
+  <si>
+    <t>成型图-直方图</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和柱状图很象
+ 但直方图x轴是一个区间
+ 它可以统计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前数据的一个分布状态</t>
+    </r>
+  </si>
+  <si>
+    <t>plt.hist</t>
+  </si>
+  <si>
+    <t>模型加载与保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模型的 "保存" 和 "加载" 功能非常强大，
+但它用起来是非常简单的。
+</t>
+  </si>
+  <si>
+    <t>pickle 是一个序列化模块，可以将想要保存的数据，
+import pickle 
+pickle.dump(model,f)
+pickle.load(f)</t>
+  </si>
+  <si>
+    <t>训练集和测试集的划分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+训练集和测试集的划分，有专门的接口。
+sklearn.model_selection
+划分 "训练集"和"测试集"</t>
+  </si>
+  <si>
+    <t>训练数据要随机打乱（要随机，但是每次随机要一样的随机规则（随机种子random_state=7））</t>
+  </si>
+  <si>
+    <t>常用的 "训练集"和 "测试集" 划分比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:1 8:2 7:3
+</t>
+  </si>
+  <si>
+    <t>集成学习</t>
+  </si>
+  <si>
+    <t>单个模型得到的预测结果总是片面的，
+根据 "多个不同模" 型给出的预测结果，利用 "平均(回归)" 或者 "投票(分类)" 的方法，
+得出最终预测结果。</t>
+  </si>
+  <si>
+    <t>它不止针对 “决策树”，其它模型同样适用。</t>
+  </si>
   <si>
     <t>线性回归</t>
   </si>
@@ -2740,14 +3661,8 @@
 不断的调整 “预测输出” 与 “实际输出” 的差异信息，使“损失函数”的值达到最小。（只有更小，没有最小）</t>
   </si>
   <si>
-    <t>回归问题</t>
-  </si>
-  <si>
     <t>均方误差：(求和(y-y')^2) / n
  (真实值 - 预测值)的平方，求和，再除以n</t>
-  </si>
-  <si>
-    <t>分类问题</t>
   </si>
   <si>
     <t>交叉熵：
@@ -3395,6 +4310,13 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3550,19 +4472,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3644,6 +4559,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3834,7 +4767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3992,6 +4925,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4109,137 +5053,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4677,6 +5621,141 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5026,1209 +6105,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
-    <col min="2" max="2" width="31.929203539823" customWidth="1"/>
-    <col min="3" max="3" width="67.9911504424779" customWidth="1"/>
-    <col min="4" max="4" width="64.0088495575221" customWidth="1"/>
-    <col min="5" max="5" width="79.0619469026549" customWidth="1"/>
+    <col min="5" max="5" width="108.530973451327" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="117" t="s">
+    <row r="12" ht="136" customHeight="1" spans="5:5">
+      <c r="E12" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="120"/>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="121"/>
-    </row>
-    <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="121"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="121"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="121"/>
-    </row>
-    <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="119" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="121"/>
-    </row>
-    <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="119" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="119"/>
-    </row>
-    <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="119"/>
-    </row>
-    <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="117"/>
-      <c r="B11" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="119"/>
-    </row>
-    <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="119"/>
-    </row>
-    <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="119"/>
-    </row>
-    <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="119"/>
-    </row>
-    <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="117"/>
-      <c r="B15" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="117"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="119" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="129"/>
-    </row>
-    <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="127"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="133"/>
-    </row>
-    <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="127"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="126"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="135" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="117"/>
-    </row>
-    <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="119" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="117"/>
-    </row>
-    <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="137"/>
-      <c r="B25" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="137"/>
-      <c r="B26" s="139" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="118" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="137"/>
-      <c r="B27" s="136" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="117"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="137"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="117"/>
-    </row>
-    <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="137"/>
-      <c r="B29" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="117"/>
-    </row>
-    <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="137"/>
-      <c r="B30" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="117"/>
-    </row>
-    <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="137"/>
-      <c r="B31" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="117"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="137"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="117"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="137"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="117"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="137"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="117"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="137"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="117"/>
-    </row>
-    <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="137"/>
-      <c r="B36" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="118"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="137"/>
-      <c r="B37" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="117"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="137"/>
-      <c r="B38" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="117"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="137"/>
-      <c r="B39" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="117"/>
-    </row>
-    <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="137"/>
-      <c r="B40" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="117"/>
-    </row>
-    <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="137"/>
-      <c r="B41" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="117"/>
-    </row>
-    <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="137"/>
-      <c r="B42" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="117"/>
-    </row>
-    <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="135" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="117"/>
-    </row>
-    <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="137"/>
-      <c r="B44" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="144" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="137"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="123" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="137"/>
-      <c r="B46" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="141" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="145"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="141" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A1:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E20:E22"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="28.6017699115044" customWidth="1"/>
-    <col min="2" max="2" width="45.3451327433628" customWidth="1"/>
-    <col min="3" max="3" width="36.5044247787611" customWidth="1"/>
-    <col min="4" max="4" width="70.5398230088496" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="92"/>
-    </row>
-    <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="96"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="96"/>
-    </row>
-    <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="96"/>
-    </row>
-    <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="96"/>
-    </row>
-    <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="98"/>
-      <c r="B6" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="99"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="100"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="100"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="100"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="100"/>
-      <c r="B11" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="100"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="100"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="100"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="100"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="100"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="100"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="108"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="100"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="108"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="100"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="109"/>
-    </row>
-    <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="110"/>
-      <c r="B21" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="92"/>
-    </row>
-    <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="100"/>
-      <c r="B23" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="93"/>
-    </row>
-    <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="100"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="93"/>
-    </row>
-    <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="100"/>
-      <c r="B25" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="114"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="100"/>
-      <c r="B26" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="100"/>
-      <c r="B27" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="100"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="93" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="100"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="110"/>
-      <c r="B30" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="93"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="93"/>
-    </row>
-    <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="100"/>
-      <c r="B32" s="112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="100"/>
-      <c r="B35" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="93" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="100"/>
-      <c r="B36" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="100"/>
-      <c r="B37" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="116"/>
-    </row>
-    <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="100"/>
-      <c r="B38" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="116" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="110"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D17:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
-    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
-    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
-    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
-    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="88"/>
-    </row>
-    <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="87"/>
-      <c r="B8" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F5:F6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.25"/>
@@ -6251,62 +6150,62 @@
     <row r="7" ht="40.5" spans="5:8">
       <c r="E7" s="76"/>
       <c r="F7" s="77" t="s">
-        <v>223</v>
+        <v>422</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>224</v>
+        <v>423</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>225</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
       <c r="E8" s="76"/>
       <c r="F8" s="78"/>
       <c r="G8" s="76" t="s">
-        <v>226</v>
+        <v>425</v>
       </c>
       <c r="H8" s="76" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
       <c r="E9" s="72" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>229</v>
+        <v>428</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="H9" s="76" t="s">
-        <v>231</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
       <c r="E10" s="72"/>
       <c r="F10" s="78"/>
       <c r="G10" s="79" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>233</v>
+        <v>432</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
       <c r="E11" s="81"/>
       <c r="F11" s="82" t="s">
-        <v>235</v>
+        <v>434</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>236</v>
+        <v>435</v>
       </c>
       <c r="I11" s="85"/>
     </row>
@@ -6314,10 +6213,10 @@
       <c r="E12" s="81"/>
       <c r="F12" s="83"/>
       <c r="G12" s="77" t="s">
-        <v>237</v>
+        <v>436</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
@@ -6325,7 +6224,7 @@
       <c r="F13" s="83"/>
       <c r="G13" s="78"/>
       <c r="H13" s="84" t="s">
-        <v>239</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
@@ -6333,7 +6232,7 @@
       <c r="F14" s="83"/>
       <c r="G14" s="78"/>
       <c r="H14" s="76" t="s">
-        <v>240</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
@@ -6341,7 +6240,7 @@
       <c r="F15" s="83"/>
       <c r="G15" s="78"/>
       <c r="H15" s="80" t="s">
-        <v>241</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
@@ -6349,19 +6248,19 @@
       <c r="F16" s="85"/>
       <c r="G16" s="86"/>
       <c r="H16" s="76" t="s">
-        <v>242</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
       <c r="E17" s="81"/>
       <c r="F17" s="72" t="s">
-        <v>243</v>
+        <v>442</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>245</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
@@ -6369,7 +6268,7 @@
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
       <c r="H18" s="76" t="s">
-        <v>246</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
@@ -6377,7 +6276,7 @@
       <c r="F19" s="72"/>
       <c r="G19" s="72"/>
       <c r="H19" s="76" t="s">
-        <v>247</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -6396,7 +6295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D9:G13"/>
@@ -6414,28 +6313,28 @@
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
       <c r="D9" s="72" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>249</v>
+        <v>448</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>250</v>
+        <v>449</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>251</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="72"/>
       <c r="E10" s="73" t="s">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>253</v>
+        <v>452</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>254</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
@@ -6443,31 +6342,31 @@
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="75" t="s">
-        <v>255</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>256</v>
+        <v>455</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>257</v>
+        <v>456</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>258</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="72"/>
       <c r="E13" s="73" t="s">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>260</v>
+        <v>459</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>261</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -6481,7 +6380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G72"/>
@@ -6504,7 +6403,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="31" t="s">
-        <v>262</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6519,7 +6418,7 @@
     <row r="6" ht="70" customHeight="1" spans="1:6">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>263</v>
+        <v>462</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6528,16 +6427,16 @@
     </row>
     <row r="7" ht="40.5" spans="2:7">
       <c r="B7" s="30" t="s">
-        <v>264</v>
+        <v>463</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>265</v>
+        <v>464</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>265</v>
+        <v>464</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6546,10 +6445,10 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="3" t="s">
-        <v>267</v>
+        <v>466</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>268</v>
+        <v>467</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6558,10 +6457,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="4" t="s">
-        <v>269</v>
+        <v>468</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>270</v>
+        <v>469</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -6569,13 +6468,13 @@
     <row r="10" spans="2:7">
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>272</v>
+        <v>471</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6584,13 +6483,13 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>273</v>
+        <v>472</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>275</v>
+        <v>474</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -6600,58 +6499,58 @@
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="4" t="s">
-        <v>276</v>
+        <v>475</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>278</v>
+        <v>477</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>279</v>
+        <v>478</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>281</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="3" t="s">
-        <v>282</v>
+        <v>481</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>283</v>
+        <v>482</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>284</v>
+        <v>483</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>285</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="31" t="s">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>287</v>
+        <v>486</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>288</v>
+        <v>487</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
@@ -6659,7 +6558,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="4" t="s">
-        <v>290</v>
+        <v>489</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
@@ -6669,7 +6568,7 @@
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
-        <v>291</v>
+        <v>490</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -6679,7 +6578,7 @@
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
-        <v>292</v>
+        <v>491</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
@@ -6689,20 +6588,20 @@
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="4" t="s">
-        <v>293</v>
+        <v>492</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="30" t="s">
-        <v>294</v>
+        <v>493</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>295</v>
+        <v>494</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>296</v>
+        <v>495</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6711,10 +6610,10 @@
     <row r="21" spans="2:7">
       <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
-        <v>297</v>
+        <v>496</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>298</v>
+        <v>497</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6723,10 +6622,10 @@
     <row r="22" spans="2:7">
       <c r="B22" s="30"/>
       <c r="C22" s="31" t="s">
-        <v>299</v>
+        <v>498</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>300</v>
+        <v>499</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6736,7 +6635,7 @@
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="3" t="s">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6745,11 +6644,11 @@
     <row r="24" ht="27" spans="2:7">
       <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
-        <v>302</v>
+        <v>501</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>303</v>
+        <v>502</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6757,7 +6656,7 @@
     <row r="25" spans="2:7">
       <c r="B25" s="30"/>
       <c r="C25" s="46" t="s">
-        <v>304</v>
+        <v>503</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
@@ -6767,7 +6666,7 @@
     <row r="26" spans="2:7">
       <c r="B26" s="30"/>
       <c r="C26" s="46" t="s">
-        <v>305</v>
+        <v>504</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
@@ -6776,35 +6675,35 @@
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>306</v>
+        <v>505</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>307</v>
+        <v>506</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>308</v>
+        <v>507</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>308</v>
+        <v>507</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>309</v>
+        <v>508</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="31"/>
       <c r="C28" s="31" t="s">
-        <v>310</v>
+        <v>509</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>311</v>
+        <v>510</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>311</v>
+        <v>510</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>312</v>
+        <v>511</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -6812,26 +6711,26 @@
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="48" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>313</v>
+        <v>512</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
-        <v>315</v>
+        <v>514</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>316</v>
+        <v>515</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6840,10 +6739,10 @@
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="50" t="s">
-        <v>318</v>
+        <v>517</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6853,7 +6752,7 @@
       <c r="C32" s="31"/>
       <c r="D32" s="50"/>
       <c r="E32" s="44" t="s">
-        <v>320</v>
+        <v>519</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6861,16 +6760,16 @@
     <row r="33" ht="23" customHeight="1" spans="2:7">
       <c r="B33" s="31"/>
       <c r="C33" s="31" t="s">
-        <v>321</v>
+        <v>520</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>322</v>
+        <v>521</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>323</v>
+        <v>522</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>324</v>
+        <v>523</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -6878,10 +6777,10 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="48" t="s">
-        <v>325</v>
+        <v>524</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>326</v>
+        <v>525</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="3"/>
@@ -6889,16 +6788,16 @@
     <row r="35" spans="2:7">
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
-        <v>327</v>
+        <v>526</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>328</v>
+        <v>527</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>329</v>
+        <v>528</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>330</v>
+        <v>529</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -6906,10 +6805,10 @@
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="48" t="s">
-        <v>331</v>
+        <v>530</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>332</v>
+        <v>531</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="3"/>
@@ -6918,10 +6817,10 @@
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="48" t="s">
-        <v>333</v>
+        <v>532</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>334</v>
+        <v>533</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="3"/>
@@ -6929,13 +6828,13 @@
     <row r="38" spans="2:7">
       <c r="B38" s="31"/>
       <c r="C38" s="31" t="s">
-        <v>335</v>
+        <v>534</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>336</v>
+        <v>535</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>337</v>
+        <v>536</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="3"/>
@@ -6943,48 +6842,48 @@
     <row r="39" ht="108" spans="2:7">
       <c r="B39" s="31"/>
       <c r="C39" s="31" t="s">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>339</v>
+        <v>538</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>340</v>
+        <v>539</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>341</v>
+        <v>540</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>342</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="53" t="s">
-        <v>343</v>
+        <v>542</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>344</v>
+        <v>543</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4" t="s">
-        <v>345</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
       <c r="B41" s="31"/>
       <c r="C41" s="31" t="s">
-        <v>346</v>
+        <v>545</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>348</v>
+        <v>547</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>349</v>
+        <v>548</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -6992,10 +6891,10 @@
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="49" t="s">
-        <v>350</v>
+        <v>549</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>351</v>
+        <v>550</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7003,34 +6902,34 @@
     <row r="43" ht="33" customHeight="1" spans="2:7">
       <c r="B43" s="31"/>
       <c r="C43" s="4" t="s">
-        <v>352</v>
+        <v>551</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>354</v>
+        <v>553</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>355</v>
+        <v>554</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
       <c r="B44" s="56" t="s">
-        <v>356</v>
+        <v>555</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>357</v>
+        <v>556</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>358</v>
+        <v>557</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>359</v>
+        <v>558</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>360</v>
+        <v>559</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -7038,13 +6937,13 @@
       <c r="B45" s="56"/>
       <c r="C45" s="58"/>
       <c r="D45" s="49" t="s">
-        <v>361</v>
+        <v>560</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>362</v>
+        <v>561</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>363</v>
+        <v>562</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -7052,7 +6951,7 @@
       <c r="B46" s="56"/>
       <c r="C46" s="58"/>
       <c r="D46" s="49" t="s">
-        <v>364</v>
+        <v>563</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="49"/>
@@ -7061,7 +6960,7 @@
     <row r="47" ht="54" spans="2:7">
       <c r="B47" s="59"/>
       <c r="C47" s="56" t="s">
-        <v>365</v>
+        <v>564</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="52"/>
@@ -7070,13 +6969,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
       <c r="B48" s="60" t="s">
-        <v>366</v>
+        <v>565</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>366</v>
+        <v>565</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>367</v>
+        <v>566</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="57"/>
@@ -7086,7 +6985,7 @@
       <c r="B49" s="60"/>
       <c r="C49" s="56"/>
       <c r="D49" s="57" t="s">
-        <v>368</v>
+        <v>567</v>
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="57"/>
@@ -7096,10 +6995,10 @@
       <c r="B50" s="60"/>
       <c r="C50" s="56"/>
       <c r="D50" s="57" t="s">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>370</v>
+        <v>569</v>
       </c>
       <c r="F50" s="57"/>
       <c r="G50" s="3"/>
@@ -7114,29 +7013,29 @@
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
       <c r="B52" s="35" t="s">
-        <v>371</v>
+        <v>570</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>372</v>
+        <v>571</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>373</v>
+        <v>572</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>374</v>
+        <v>573</v>
       </c>
       <c r="F52" s="62" t="s">
-        <v>375</v>
+        <v>574</v>
       </c>
       <c r="G52" s="63" t="s">
-        <v>376</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
       <c r="B53" s="36"/>
       <c r="C53" s="64"/>
       <c r="D53" s="3" t="s">
-        <v>377</v>
+        <v>576</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="65"/>
@@ -7146,10 +7045,10 @@
       <c r="B54" s="36"/>
       <c r="C54" s="64"/>
       <c r="D54" s="35" t="s">
-        <v>378</v>
+        <v>577</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>379</v>
+        <v>578</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="68"/>
@@ -7159,7 +7058,7 @@
       <c r="C55" s="64"/>
       <c r="D55" s="36"/>
       <c r="E55" s="3" t="s">
-        <v>380</v>
+        <v>579</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -7169,7 +7068,7 @@
       <c r="C56" s="64"/>
       <c r="D56" s="36"/>
       <c r="E56" s="3" t="s">
-        <v>381</v>
+        <v>580</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -7179,16 +7078,16 @@
       <c r="C57" s="69"/>
       <c r="D57" s="37"/>
       <c r="E57" s="4" t="s">
-        <v>382</v>
+        <v>581</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>383</v>
+        <v>582</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="70" t="s">
-        <v>384</v>
+        <v>583</v>
       </c>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -7284,7 +7183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C18:H95"/>
@@ -7306,16 +7205,16 @@
   <sheetData>
     <row r="18" ht="27" spans="3:8">
       <c r="C18" s="10" t="s">
-        <v>385</v>
+        <v>584</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>386</v>
+        <v>585</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>387</v>
+        <v>586</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>388</v>
+        <v>587</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="3"/>
@@ -7323,10 +7222,10 @@
     <row r="19" ht="54" spans="3:8">
       <c r="C19" s="10"/>
       <c r="D19" s="12" t="s">
-        <v>389</v>
+        <v>588</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>390</v>
+        <v>589</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
@@ -7335,10 +7234,10 @@
     <row r="20" spans="3:8">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>391</v>
+        <v>590</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>392</v>
+        <v>591</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
@@ -7347,7 +7246,7 @@
     <row r="21" ht="72" customHeight="1" spans="3:8">
       <c r="C21" s="10"/>
       <c r="D21" s="12" t="s">
-        <v>393</v>
+        <v>592</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14"/>
@@ -7356,17 +7255,17 @@
     </row>
     <row r="22" ht="32" customHeight="1" spans="3:8">
       <c r="C22" s="14" t="s">
-        <v>394</v>
+        <v>593</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>395</v>
+        <v>594</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>396</v>
+        <v>595</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
-        <v>397</v>
+        <v>596</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -7376,23 +7275,23 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>398</v>
+        <v>597</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" ht="265" customHeight="1" spans="3:8">
       <c r="C24" s="14"/>
       <c r="D24" s="18" t="s">
-        <v>399</v>
+        <v>598</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>400</v>
+        <v>599</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>402</v>
+        <v>601</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -7401,20 +7300,20 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>403</v>
+        <v>602</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>404</v>
+        <v>603</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" ht="38" customHeight="1" spans="3:8">
       <c r="C26" s="14"/>
       <c r="D26" s="11" t="s">
-        <v>405</v>
+        <v>604</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>406</v>
+        <v>605</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -7423,42 +7322,42 @@
     <row r="27" ht="409" customHeight="1" spans="3:8">
       <c r="C27" s="14"/>
       <c r="D27" s="12" t="s">
-        <v>407</v>
+        <v>606</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>408</v>
+        <v>607</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>409</v>
+        <v>608</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>410</v>
+        <v>609</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" ht="58" customHeight="1" spans="3:8">
       <c r="C28" s="14"/>
       <c r="D28" s="11" t="s">
-        <v>411</v>
+        <v>610</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>412</v>
+        <v>611</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>413</v>
+        <v>612</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="21" t="s">
-        <v>414</v>
+        <v>613</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>415</v>
+        <v>614</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>416</v>
+        <v>615</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -7467,13 +7366,13 @@
     <row r="30" spans="3:8">
       <c r="C30" s="21"/>
       <c r="D30" s="22" t="s">
-        <v>417</v>
+        <v>616</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>418</v>
+        <v>617</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>419</v>
+        <v>618</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="3"/>
@@ -7481,26 +7380,26 @@
     <row r="31" ht="85" customHeight="1" spans="3:8">
       <c r="C31" s="21"/>
       <c r="D31" s="22" t="s">
-        <v>414</v>
+        <v>613</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>420</v>
+        <v>619</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>421</v>
+        <v>620</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>422</v>
+        <v>621</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" ht="37" customHeight="1" spans="3:8">
       <c r="C32" s="21"/>
       <c r="D32" s="25" t="s">
-        <v>423</v>
+        <v>622</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>424</v>
+        <v>623</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -7510,7 +7409,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="25"/>
       <c r="E33" s="23" t="s">
-        <v>425</v>
+        <v>624</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -7519,10 +7418,10 @@
     <row r="34" ht="83" customHeight="1" spans="3:8">
       <c r="C34" s="21"/>
       <c r="D34" s="22" t="s">
-        <v>426</v>
+        <v>625</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>427</v>
+        <v>626</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -7531,29 +7430,29 @@
     <row r="35" ht="44" customHeight="1" spans="3:8">
       <c r="C35" s="21"/>
       <c r="D35" s="22" t="s">
-        <v>428</v>
+        <v>627</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>429</v>
+        <v>628</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>430</v>
+        <v>629</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>431</v>
+        <v>630</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" ht="27" spans="3:8">
       <c r="C36" s="21"/>
       <c r="D36" s="27" t="s">
-        <v>432</v>
+        <v>631</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>433</v>
+        <v>632</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>434</v>
+        <v>633</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="3"/>
@@ -7562,10 +7461,10 @@
       <c r="C37" s="21"/>
       <c r="D37" s="27"/>
       <c r="E37" s="25" t="s">
-        <v>435</v>
+        <v>634</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>436</v>
+        <v>635</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
@@ -7575,10 +7474,10 @@
       <c r="D38" s="27"/>
       <c r="E38" s="25"/>
       <c r="F38" s="24" t="s">
-        <v>437</v>
+        <v>636</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>438</v>
+        <v>637</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -7587,10 +7486,10 @@
       <c r="D39" s="27"/>
       <c r="E39" s="25"/>
       <c r="F39" s="24" t="s">
-        <v>439</v>
+        <v>638</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -7599,10 +7498,10 @@
       <c r="D40" s="27"/>
       <c r="E40" s="25"/>
       <c r="F40" s="17" t="s">
-        <v>441</v>
+        <v>640</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>442</v>
+        <v>641</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -7611,20 +7510,20 @@
       <c r="D41" s="27"/>
       <c r="E41" s="25"/>
       <c r="F41" s="17" t="s">
-        <v>443</v>
+        <v>642</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>444</v>
+        <v>643</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" ht="34" customHeight="1" spans="3:8">
       <c r="C42" s="21"/>
       <c r="D42" s="22" t="s">
-        <v>445</v>
+        <v>644</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>446</v>
+        <v>645</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7632,13 +7531,13 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="2" t="s">
-        <v>447</v>
+        <v>646</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>448</v>
+        <v>647</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>449</v>
+        <v>648</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -7647,10 +7546,10 @@
     <row r="44" ht="53" customHeight="1" spans="3:8">
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>451</v>
+        <v>650</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -7659,10 +7558,10 @@
     <row r="45" ht="27" spans="3:8">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>452</v>
+        <v>66</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>453</v>
+        <v>651</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -7671,10 +7570,10 @@
     <row r="46" ht="54" spans="3:8">
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
-        <v>454</v>
+        <v>69</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>455</v>
+        <v>652</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -7682,29 +7581,29 @@
     </row>
     <row r="47" ht="99" customHeight="1" spans="3:8">
       <c r="C47" s="2" t="s">
-        <v>456</v>
+        <v>653</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>395</v>
+        <v>594</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>457</v>
+        <v>654</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>458</v>
+        <v>655</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>459</v>
+        <v>656</v>
       </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" ht="48" customHeight="1" spans="3:8">
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>460</v>
+        <v>657</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>461</v>
+        <v>658</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -7713,13 +7612,13 @@
     <row r="49" ht="34" customHeight="1" spans="3:8">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>462</v>
+        <v>659</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>463</v>
+        <v>660</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>464</v>
+        <v>661</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -7727,13 +7626,13 @@
     <row r="50" ht="34" customHeight="1" spans="3:8">
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>465</v>
+        <v>662</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>466</v>
+        <v>663</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>467</v>
+        <v>664</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -7741,13 +7640,13 @@
     <row r="51" ht="107" customHeight="1" spans="3:8">
       <c r="C51" s="2"/>
       <c r="D51" s="30" t="s">
-        <v>468</v>
+        <v>665</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>469</v>
+        <v>666</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>470</v>
+        <v>667</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -7756,10 +7655,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
-        <v>471</v>
+        <v>668</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>472</v>
+        <v>669</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -7767,13 +7666,13 @@
     <row r="53" ht="40.5" spans="3:8">
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
-        <v>473</v>
+        <v>670</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>474</v>
+        <v>671</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>475</v>
+        <v>672</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -7781,16 +7680,16 @@
     <row r="54" spans="3:8">
       <c r="C54" s="2"/>
       <c r="D54" s="30" t="s">
-        <v>476</v>
+        <v>673</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>477</v>
+        <v>674</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>478</v>
+        <v>675</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>479</v>
+        <v>676</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -7798,7 +7697,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="30"/>
       <c r="E55" s="3" t="s">
-        <v>480</v>
+        <v>677</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="30"/>
@@ -7808,10 +7707,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="30"/>
       <c r="E56" s="4" t="s">
-        <v>481</v>
+        <v>678</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>482</v>
+        <v>679</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="3"/>
@@ -7819,13 +7718,13 @@
     <row r="57" ht="77" customHeight="1" spans="3:8">
       <c r="C57" s="2"/>
       <c r="D57" s="32" t="s">
-        <v>483</v>
+        <v>680</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>484</v>
+        <v>681</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>485</v>
+        <v>682</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -7834,10 +7733,10 @@
       <c r="C58" s="2"/>
       <c r="D58" s="32"/>
       <c r="E58" s="4" t="s">
-        <v>486</v>
+        <v>683</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>487</v>
+        <v>684</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -7846,13 +7745,13 @@
       <c r="C59" s="2"/>
       <c r="D59" s="32"/>
       <c r="E59" s="4" t="s">
-        <v>488</v>
+        <v>685</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>489</v>
+        <v>686</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>490</v>
+        <v>687</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -7860,13 +7759,13 @@
       <c r="C60" s="2"/>
       <c r="D60" s="32"/>
       <c r="E60" s="4" t="s">
-        <v>491</v>
+        <v>688</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>492</v>
+        <v>689</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>493</v>
+        <v>690</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -7874,10 +7773,10 @@
       <c r="C61" s="2"/>
       <c r="D61" s="32"/>
       <c r="E61" s="3" t="s">
-        <v>494</v>
+        <v>691</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>495</v>
+        <v>692</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
@@ -7886,13 +7785,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="32"/>
       <c r="E62" s="33" t="s">
-        <v>496</v>
+        <v>693</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>497</v>
+        <v>694</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>498</v>
+        <v>695</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -7900,13 +7799,13 @@
       <c r="C63" s="2"/>
       <c r="D63" s="32"/>
       <c r="E63" s="34" t="s">
-        <v>499</v>
+        <v>696</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>500</v>
+        <v>697</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>501</v>
+        <v>698</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -7915,13 +7814,13 @@
       <c r="D64" s="32"/>
       <c r="E64" s="34"/>
       <c r="F64" s="30" t="s">
-        <v>502</v>
+        <v>699</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>503</v>
+        <v>700</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>504</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" ht="100" customHeight="1" spans="3:8">
@@ -7930,10 +7829,10 @@
       <c r="E65" s="34"/>
       <c r="F65" s="30"/>
       <c r="G65" s="4" t="s">
-        <v>505</v>
+        <v>702</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>506</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66" ht="54" customHeight="1" spans="3:8">
@@ -7941,37 +7840,37 @@
       <c r="D66" s="32"/>
       <c r="E66" s="34"/>
       <c r="F66" s="3" t="s">
-        <v>328</v>
+        <v>527</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>507</v>
+        <v>704</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" ht="74" customHeight="1" spans="5:5">
       <c r="E67" t="s">
-        <v>508</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="3:6">
       <c r="C74" s="2" t="s">
-        <v>509</v>
+        <v>706</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>510</v>
+        <v>707</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>511</v>
+        <v>708</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>512</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="2"/>
       <c r="D75" s="7"/>
       <c r="E75" s="3" t="s">
-        <v>513</v>
+        <v>710</v>
       </c>
       <c r="F75" s="36"/>
     </row>
@@ -7979,33 +7878,33 @@
       <c r="C76" s="2"/>
       <c r="D76" s="9"/>
       <c r="E76" s="3" t="s">
-        <v>514</v>
+        <v>711</v>
       </c>
       <c r="F76" s="37"/>
     </row>
     <row r="77" ht="27" spans="3:7">
       <c r="C77" s="2"/>
       <c r="D77" s="35" t="s">
-        <v>515</v>
+        <v>712</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>516</v>
+        <v>713</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>517</v>
+        <v>714</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>518</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="2"/>
       <c r="D78" s="36"/>
       <c r="E78" s="3" t="s">
-        <v>519</v>
+        <v>716</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>520</v>
+        <v>717</v>
       </c>
       <c r="G78" s="40"/>
     </row>
@@ -8013,7 +7912,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="37"/>
       <c r="E79" s="3" t="s">
-        <v>521</v>
+        <v>718</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="41"/>
@@ -8021,23 +7920,23 @@
     <row r="80" spans="3:6">
       <c r="C80" s="2"/>
       <c r="D80" s="30" t="s">
-        <v>522</v>
+        <v>719</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>523</v>
+        <v>720</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>524</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" spans="3:6">
       <c r="C81" s="2"/>
       <c r="D81" s="30"/>
       <c r="E81" s="3" t="s">
-        <v>525</v>
+        <v>722</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>526</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="3:6">
@@ -8045,50 +7944,50 @@
       <c r="D82" s="30"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>527</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" ht="27" spans="3:6">
       <c r="C83" s="2"/>
       <c r="D83" s="30"/>
       <c r="E83" s="3" t="s">
-        <v>528</v>
+        <v>725</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>529</v>
+        <v>726</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="62" customHeight="1" spans="3:6">
       <c r="C84" s="2"/>
       <c r="D84" s="30" t="s">
-        <v>530</v>
+        <v>727</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>531</v>
+        <v>728</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>532</v>
+        <v>729</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="108" spans="3:6">
       <c r="C85" s="2"/>
       <c r="D85" s="3" t="s">
-        <v>533</v>
+        <v>730</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>534</v>
+        <v>731</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>535</v>
+        <v>732</v>
       </c>
     </row>
     <row r="86" spans="3:6">
       <c r="C86" s="2"/>
       <c r="D86" s="43" t="s">
-        <v>536</v>
+        <v>733</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>537</v>
+        <v>734</v>
       </c>
       <c r="F86" s="3"/>
     </row>
@@ -8096,91 +7995,91 @@
       <c r="C87" s="2"/>
       <c r="D87" s="36"/>
       <c r="E87" s="44" t="s">
-        <v>538</v>
+        <v>735</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>539</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88" ht="74" customHeight="1" spans="3:6">
       <c r="C88" s="2"/>
       <c r="D88" s="36"/>
       <c r="E88" s="44" t="s">
-        <v>540</v>
+        <v>737</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>541</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" ht="26" customHeight="1" spans="3:6">
       <c r="C89" s="2"/>
       <c r="D89" s="37"/>
       <c r="E89" s="3" t="s">
-        <v>542</v>
+        <v>739</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>543</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="2"/>
       <c r="D90" s="35" t="s">
-        <v>544</v>
+        <v>741</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>545</v>
+        <v>742</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>546</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="C91" s="2"/>
       <c r="D91" s="36"/>
       <c r="E91" s="3" t="s">
-        <v>547</v>
+        <v>744</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>548</v>
+        <v>745</v>
       </c>
     </row>
     <row r="92" spans="3:6">
       <c r="C92" s="2"/>
       <c r="D92" s="36"/>
       <c r="E92" s="8" t="s">
-        <v>549</v>
+        <v>746</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>550</v>
+        <v>747</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="C93" s="2"/>
       <c r="D93" s="36"/>
       <c r="E93" s="3" t="s">
-        <v>551</v>
+        <v>748</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>552</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="3:6">
       <c r="C94" s="2"/>
       <c r="D94" s="37"/>
       <c r="E94" s="3" t="s">
-        <v>553</v>
+        <v>750</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>554</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" ht="27" spans="3:6">
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>555</v>
+        <v>752</v>
       </c>
       <c r="F95" s="3"/>
     </row>
@@ -8220,7 +8119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B8:G23"/>
@@ -8241,16 +8140,16 @@
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>556</v>
+        <v>753</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>557</v>
+        <v>754</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>558</v>
+        <v>755</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>559</v>
+        <v>756</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8259,10 +8158,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>560</v>
+        <v>757</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>561</v>
+        <v>758</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8271,10 +8170,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>562</v>
+        <v>759</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>563</v>
+        <v>760</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8283,10 +8182,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>564</v>
+        <v>761</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>565</v>
+        <v>762</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8294,16 +8193,16 @@
     <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>566</v>
+        <v>763</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>567</v>
+        <v>764</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>568</v>
+        <v>765</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>569</v>
+        <v>766</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -8313,10 +8212,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>570</v>
+        <v>767</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>571</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8324,10 +8223,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
-        <v>572</v>
+        <v>769</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>573</v>
+        <v>770</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8337,7 +8236,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>574</v>
+        <v>771</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -8347,7 +8246,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8357,7 +8256,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>576</v>
+        <v>773</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -8367,7 +8266,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>577</v>
+        <v>774</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -8377,7 +8276,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>578</v>
+        <v>775</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -8386,7 +8285,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>579</v>
+        <v>776</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
@@ -8395,7 +8294,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>580</v>
+        <v>777</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8405,7 +8304,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>581</v>
+        <v>778</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8415,7 +8314,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>582</v>
+        <v>779</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8436,12 +8335,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D15:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -8452,33 +8351,2432 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>583</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>584</v>
+        <v>781</v>
       </c>
       <c r="G17" t="s">
-        <v>585</v>
+        <v>782</v>
       </c>
       <c r="H17" t="s">
-        <v>586</v>
+        <v>783</v>
       </c>
       <c r="I17" t="s">
-        <v>587</v>
+        <v>784</v>
       </c>
       <c r="J17" t="s">
-        <v>588</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>589</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B6:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
+    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
+    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="40.5" spans="2:5">
+      <c r="B6" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="81"/>
+      <c r="C7" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="2:5">
+      <c r="B8" s="81"/>
+      <c r="C8" s="162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="162"/>
+      <c r="E8" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="81"/>
+      <c r="C9" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="2:5">
+      <c r="B10" s="81"/>
+      <c r="C10" s="162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="162"/>
+      <c r="E10" s="73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="2:5">
+      <c r="B11" s="81"/>
+      <c r="C11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="94.5" spans="2:5">
+      <c r="B12" s="81"/>
+      <c r="C12" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="58" customHeight="1" spans="2:9">
+      <c r="B13" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="I13" s="190"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B6:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A11:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.38938053097345" customWidth="1"/>
+    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
+    <col min="3" max="4" width="17.7610619469027" customWidth="1"/>
+    <col min="5" max="5" width="44.9380530973451" customWidth="1"/>
+    <col min="6" max="6" width="21.7699115044248" customWidth="1"/>
+    <col min="7" max="7" width="53.4778761061947" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" ht="51" customHeight="1" spans="1:7">
+      <c r="A11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" ht="85" customHeight="1" spans="1:7">
+      <c r="A12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" ht="27" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="181" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="182" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="85" customHeight="1" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="186"/>
+    </row>
+    <row r="16" ht="40.5" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="187" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="188"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A13:A30"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E21:E25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B5:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="20.9823008849558" customWidth="1"/>
+    <col min="4" max="4" width="55.1592920353982" customWidth="1"/>
+    <col min="5" max="5" width="72.4159292035398" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="67.5" spans="2:5">
+      <c r="B5" s="175" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="94.5" spans="2:5">
+      <c r="B6" s="175"/>
+      <c r="C6" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="176" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="135" spans="2:5">
+      <c r="B7" s="177" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="179" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5" spans="2:5">
+      <c r="B8" s="177"/>
+      <c r="C8" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="178" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="179" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="2:5">
+      <c r="B9" s="177"/>
+      <c r="C9" s="178" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="179" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="189" spans="2:5">
+      <c r="B10" s="177"/>
+      <c r="C10" s="178" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="178" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
+    <col min="4" max="4" width="13.5752212389381" customWidth="1"/>
+    <col min="5" max="5" width="34.3893805309735" customWidth="1"/>
+    <col min="6" max="6" width="31.5398230088496" customWidth="1"/>
+    <col min="7" max="7" width="34.646017699115" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="67.5" spans="2:7">
+      <c r="B3" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="167" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="167" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:7">
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="167" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" ht="175.5" spans="2:7">
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="169"/>
+      <c r="F5" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="167" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="2:7">
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="168" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="171" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="172" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="167" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="168" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="167"/>
+    </row>
+    <row r="9" ht="121.5" spans="2:7">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="168" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="168" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="166"/>
+      <c r="E10" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="174" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="174" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="174" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="174" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="174" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="166"/>
+      <c r="C16" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="174"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="174" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="169"/>
+      <c r="G17" s="174"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="174" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="169"/>
+      <c r="G18" s="174"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="174" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="169"/>
+      <c r="G19" s="174"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="174" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="169"/>
+      <c r="G20" s="174"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G7:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.8495575221239" customWidth="1"/>
+    <col min="2" max="2" width="58.0176991150442" customWidth="1"/>
+    <col min="3" max="3" width="70.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="60.1238938053097" customWidth="1"/>
+    <col min="5" max="5" width="49.1238938053097" customWidth="1"/>
+    <col min="6" max="6" width="50.3185840707965" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="87" customHeight="1" spans="1:4">
+      <c r="A1" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+    </row>
+    <row r="2" ht="76" customHeight="1" spans="1:4">
+      <c r="A2" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:4">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="149"/>
+    </row>
+    <row r="4" ht="27" spans="1:4">
+      <c r="A4" s="148"/>
+      <c r="B4" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="149"/>
+    </row>
+    <row r="5" ht="86" customHeight="1" spans="1:4">
+      <c r="A5" s="148"/>
+      <c r="B5" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="149"/>
+    </row>
+    <row r="6" ht="160" customHeight="1" spans="1:4">
+      <c r="A6" s="148"/>
+      <c r="B6" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="149"/>
+    </row>
+    <row r="7" ht="86" customHeight="1" spans="1:4">
+      <c r="A7" s="148"/>
+      <c r="B7" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="149"/>
+    </row>
+    <row r="8" ht="148.5" spans="1:4">
+      <c r="A8" s="148"/>
+      <c r="B8" s="148" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="149"/>
+    </row>
+    <row r="9" ht="182" customHeight="1" spans="1:4">
+      <c r="A9" s="148"/>
+      <c r="B9" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="150" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" ht="94.5" spans="1:4">
+      <c r="A10" s="148"/>
+      <c r="B10" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="149"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:4">
+      <c r="A11" s="148"/>
+      <c r="B11" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="149"/>
+    </row>
+    <row r="12" ht="94" customHeight="1" spans="1:4">
+      <c r="A12" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="152" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" ht="96" customHeight="1" spans="1:4">
+      <c r="A13" s="153"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="152" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" ht="91" customHeight="1" spans="1:4">
+      <c r="A14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="152" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" ht="111" customHeight="1" spans="1:4">
+      <c r="A15" s="153"/>
+      <c r="B15" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="155"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="153"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" ht="162" spans="1:4">
+      <c r="A17" s="153"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" ht="47" customHeight="1" spans="1:4">
+      <c r="A18" s="153"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="152" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" ht="31" customHeight="1" spans="1:4">
+      <c r="A19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" ht="56" customHeight="1" spans="1:4">
+      <c r="A20" s="153"/>
+      <c r="B20" s="151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:4">
+      <c r="A21" s="154"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" ht="148.5" spans="1:4">
+      <c r="A22" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" ht="132" customHeight="1" spans="1:4">
+      <c r="A23" s="159"/>
+      <c r="B23" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="158" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="158" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" ht="66" customHeight="1" spans="1:4">
+      <c r="A24" s="159"/>
+      <c r="B24" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="158" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="159"/>
+      <c r="B25" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="158"/>
+    </row>
+    <row r="26" ht="27" spans="1:4">
+      <c r="A26" s="159"/>
+      <c r="B26" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" ht="34" customHeight="1" spans="1:4">
+      <c r="A27" s="159"/>
+      <c r="B27" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="159"/>
+      <c r="B28" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="158" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="158" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="159"/>
+      <c r="B29" s="157" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="158" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:4">
+      <c r="A30" s="161"/>
+      <c r="B30" s="157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="158" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" ht="60" customHeight="1"/>
+    <row r="32" ht="90" customHeight="1" spans="1:3">
+      <c r="A32" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" ht="73" customHeight="1" spans="1:6">
+      <c r="A34" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" ht="73" customHeight="1" spans="1:5">
+      <c r="A35" s="164"/>
+      <c r="B35" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="165"/>
+    </row>
+    <row r="36" ht="57" customHeight="1" spans="1:5">
+      <c r="A36" s="162" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="73"/>
+      <c r="D36" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="165"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
+    <col min="2" max="2" width="31.929203539823" customWidth="1"/>
+    <col min="3" max="3" width="67.9911504424779" customWidth="1"/>
+    <col min="4" max="4" width="64.0088495575221" customWidth="1"/>
+    <col min="5" max="5" width="79.0619469026549" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67" customHeight="1" spans="1:5">
+      <c r="A1" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="120"/>
+    </row>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="121"/>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:5">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="121"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="117"/>
+      <c r="B4" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="121"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="121"/>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="123" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="121"/>
+    </row>
+    <row r="7" ht="54" spans="1:5">
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:5">
+      <c r="A9" s="117"/>
+      <c r="B9" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="119"/>
+    </row>
+    <row r="10" ht="81" spans="1:5">
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="119"/>
+    </row>
+    <row r="11" ht="72" customHeight="1" spans="1:5">
+      <c r="A11" s="117"/>
+      <c r="B11" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="119"/>
+    </row>
+    <row r="12" ht="54" spans="1:5">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="119"/>
+    </row>
+    <row r="13" ht="54" spans="1:5">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="124" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="119"/>
+    </row>
+    <row r="14" ht="27" spans="1:5">
+      <c r="A14" s="117"/>
+      <c r="B14" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="119"/>
+    </row>
+    <row r="15" ht="63" customHeight="1" spans="1:5">
+      <c r="A15" s="117"/>
+      <c r="B15" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" ht="81" spans="1:5">
+      <c r="A16" s="117"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
+      <c r="A17" s="117"/>
+      <c r="B17" s="118" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="1:5">
+      <c r="A19" s="127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="129"/>
+    </row>
+    <row r="20" ht="109" customHeight="1" spans="1:5">
+      <c r="A20" s="127"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:5">
+      <c r="A21" s="127"/>
+      <c r="B21" s="132" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="133"/>
+    </row>
+    <row r="22" ht="121.5" spans="1:5">
+      <c r="A22" s="127"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="126"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="136" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="117"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:5">
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="117"/>
+    </row>
+    <row r="25" ht="27" spans="1:5">
+      <c r="A25" s="137"/>
+      <c r="B25" s="139" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="117"/>
+    </row>
+    <row r="26" ht="44" customHeight="1" spans="1:5">
+      <c r="A26" s="137"/>
+      <c r="B26" s="139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="137"/>
+      <c r="B27" s="136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="117"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="119" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="117"/>
+    </row>
+    <row r="29" ht="51" customHeight="1" spans="1:5">
+      <c r="A29" s="137"/>
+      <c r="B29" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="117"/>
+    </row>
+    <row r="30" ht="94.5" spans="1:5">
+      <c r="A30" s="137"/>
+      <c r="B30" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="117"/>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:5">
+      <c r="A31" s="137"/>
+      <c r="B31" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="117"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="137"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="117"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="137"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="117"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="137"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="117"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="137"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="117"/>
+    </row>
+    <row r="36" ht="44" customHeight="1" spans="1:5">
+      <c r="A36" s="137"/>
+      <c r="B36" s="140" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="118"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="137"/>
+      <c r="B37" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="117"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="137"/>
+      <c r="B38" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="117"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="137"/>
+      <c r="B39" s="118" t="s">
+        <v>300</v>
+      </c>
+      <c r="C39" s="121" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="117"/>
+    </row>
+    <row r="40" ht="40.5" spans="1:5">
+      <c r="A40" s="137"/>
+      <c r="B40" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="119" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40" s="117"/>
+    </row>
+    <row r="41" ht="46" customHeight="1" spans="1:5">
+      <c r="A41" s="137"/>
+      <c r="B41" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="119" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="117"/>
+    </row>
+    <row r="42" ht="176" customHeight="1" spans="1:5">
+      <c r="A42" s="137"/>
+      <c r="B42" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="141" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="117"/>
+    </row>
+    <row r="43" ht="47" customHeight="1" spans="1:5">
+      <c r="A43" s="135" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="142" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="143"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="117"/>
+    </row>
+    <row r="44" ht="94" customHeight="1" spans="1:5">
+      <c r="A44" s="137"/>
+      <c r="B44" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" s="144" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="141" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" ht="98" customHeight="1" spans="1:5">
+      <c r="A45" s="137"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" s="123" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:5">
+      <c r="A46" s="137"/>
+      <c r="B46" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="144" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" spans="1:5">
+      <c r="A47" s="145"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E47" s="141" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A1:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E20:E22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="28.6017699115044" customWidth="1"/>
+    <col min="2" max="2" width="45.3451327433628" customWidth="1"/>
+    <col min="3" max="3" width="36.5044247787611" customWidth="1"/>
+    <col min="4" max="4" width="70.5398230088496" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="49" customHeight="1" spans="1:4">
+      <c r="A1" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="92"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="96"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="96"/>
+    </row>
+    <row r="4" ht="71" customHeight="1" spans="1:4">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="96"/>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:4">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" ht="90" customHeight="1" spans="1:4">
+      <c r="A6" s="98"/>
+      <c r="B6" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="99"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="100" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="100"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="100"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="100"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:4">
+      <c r="A11" s="100"/>
+      <c r="B11" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="100"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
+      <c r="A13" s="100"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="106" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:4">
+      <c r="A14" s="100"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="106" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:4">
+      <c r="A15" s="100"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="105" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="100"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="100"/>
+      <c r="B17" s="101" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="100"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="108"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="100"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="95" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="108"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="100"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="109"/>
+    </row>
+    <row r="21" ht="81" spans="1:4">
+      <c r="A21" s="110"/>
+      <c r="B21" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" ht="85" customHeight="1" spans="1:4">
+      <c r="A22" s="100" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="92"/>
+    </row>
+    <row r="23" ht="65" customHeight="1" spans="1:4">
+      <c r="A23" s="100"/>
+      <c r="B23" s="112" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="93"/>
+    </row>
+    <row r="24" ht="67.5" spans="1:4">
+      <c r="A24" s="100"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" s="93"/>
+    </row>
+    <row r="25" ht="57" customHeight="1" spans="1:4">
+      <c r="A25" s="100"/>
+      <c r="B25" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="113" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" s="114"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="100"/>
+      <c r="B26" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="100"/>
+      <c r="B27" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:4">
+      <c r="A28" s="100"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="97" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" ht="28" customHeight="1" spans="1:4">
+      <c r="A29" s="100"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="97" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:4">
+      <c r="A30" s="110"/>
+      <c r="B30" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="93"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="93"/>
+    </row>
+    <row r="32" ht="54" spans="1:4">
+      <c r="A32" s="100"/>
+      <c r="B32" s="112" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" ht="108" spans="1:4">
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="93" t="s">
+        <v>386</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:4">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="93" t="s">
+        <v>388</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:4">
+      <c r="A35" s="100"/>
+      <c r="B35" s="112" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" ht="81" spans="1:4">
+      <c r="A36" s="100"/>
+      <c r="B36" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" ht="50" customHeight="1" spans="1:4">
+      <c r="A37" s="100"/>
+      <c r="B37" s="112" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="116"/>
+    </row>
+    <row r="38" ht="50" customHeight="1" spans="1:4">
+      <c r="A38" s="100"/>
+      <c r="B38" s="112" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" s="115" t="s">
+        <v>399</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" ht="81" spans="1:4">
+      <c r="A39" s="110"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="97" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D17:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
+    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
+    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" ht="226" customHeight="1" spans="1:9">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="88"/>
+    </row>
+    <row r="7" ht="128" customHeight="1" spans="1:6">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:6">
+      <c r="A8" s="87"/>
+      <c r="B8" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>